--- a/100runs/run008/NotionalETEOutput008.xlsx
+++ b/100runs/run008/NotionalETEOutput008.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="17">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,31 +49,19 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND_State_Update</t>
-  </si>
-  <si>
-    <t>Missile_BRAVER_State_Update</t>
-  </si>
-  <si>
     <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_266.MISSILE_HIGHWIND_266</t>
+    <t>MISSILE_HELLMASKER_171.MISSILE_HELLMASKER_171</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_487.MISSILE_BRAVER_487</t>
+    <t>MISSILE_HELLMASKER_297.MISSILE_HELLMASKER_297</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_447.MISSILE_BRAVER_447</t>
+    <t>MISSILE_HELLMASKER_480.MISSILE_HELLMASKER_480</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_377.MISSILE_HELLMASKER_377</t>
-  </si>
-  <si>
-    <t>MISSILE_HIGHWIND</t>
-  </si>
-  <si>
-    <t>MISSILE_BRAVER</t>
+    <t>MISSILE_HELLMASKER_431.MISSILE_HELLMASKER_431</t>
   </si>
   <si>
     <t>MISSILE_HELLMASKER</t>
@@ -483,31 +471,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>270.5454504252688</v>
+        <v>1116580.041950993</v>
       </c>
       <c r="G2">
-        <v>-115.8875928560852</v>
+        <v>4841122.568494664</v>
       </c>
       <c r="H2">
-        <v>852.4085229439501</v>
+        <v>3985231.192542213</v>
       </c>
       <c r="I2">
-        <v>-862.8089158928134</v>
+        <v>1114861.544456559</v>
       </c>
       <c r="J2">
-        <v>2224.353425994904</v>
+        <v>4843223.773925386</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984370.311777171</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -518,31 +506,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>270.5454504252688</v>
+        <v>1116580.041950993</v>
       </c>
       <c r="G3">
-        <v>-115.8875928560852</v>
+        <v>4841122.568494664</v>
       </c>
       <c r="H3">
-        <v>852.4085229439501</v>
+        <v>3985231.192542213</v>
       </c>
       <c r="I3">
-        <v>-845.7747704595918</v>
+        <v>1114891.158457991</v>
       </c>
       <c r="J3">
-        <v>2170.244262509269</v>
+        <v>4843175.122332135</v>
       </c>
       <c r="K3">
-        <v>232.2276220747899</v>
+        <v>3984674.107768431</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -553,31 +541,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>270.5454504252688</v>
+        <v>1116580.041950993</v>
       </c>
       <c r="G4">
-        <v>-115.8875928560852</v>
+        <v>4841122.568494664</v>
       </c>
       <c r="H4">
-        <v>852.4085229439501</v>
+        <v>3985231.192542213</v>
       </c>
       <c r="I4">
-        <v>-828.3211748662037</v>
+        <v>1114921.501676964</v>
       </c>
       <c r="J4">
-        <v>2116.135099023634</v>
+        <v>4843126.470738883</v>
       </c>
       <c r="K4">
-        <v>452.8753104197262</v>
+        <v>3984962.755099016</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -588,31 +576,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>270.5454504252688</v>
+        <v>1116580.041950993</v>
       </c>
       <c r="G5">
-        <v>-115.8875928560852</v>
+        <v>4841122.568494664</v>
       </c>
       <c r="H5">
-        <v>852.4085229439501</v>
+        <v>3985231.192542213</v>
       </c>
       <c r="I5">
-        <v>-810.4378005383418</v>
+        <v>1114952.592069789</v>
       </c>
       <c r="J5">
-        <v>2062.025935537999</v>
+        <v>4843077.819145633</v>
       </c>
       <c r="K5">
-        <v>661.9430650348108</v>
+        <v>3985236.253768926</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -623,31 +611,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>270.5454504252688</v>
+        <v>1116580.041950993</v>
       </c>
       <c r="G6">
-        <v>-115.8875928560852</v>
+        <v>4841122.568494664</v>
       </c>
       <c r="H6">
-        <v>852.4085229439501</v>
+        <v>3985231.192542213</v>
       </c>
       <c r="I6">
-        <v>-792.1140645700592</v>
+        <v>1114984.448034934</v>
       </c>
       <c r="J6">
-        <v>2007.916772052365</v>
+        <v>4843029.167552382</v>
       </c>
       <c r="K6">
-        <v>859.4308859200422</v>
+        <v>3985494.603778161</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -658,31 +646,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>270.5454504252688</v>
+        <v>1116580.041950993</v>
       </c>
       <c r="G7">
-        <v>-115.8875928560852</v>
+        <v>4841122.568494664</v>
       </c>
       <c r="H7">
-        <v>852.4085229439501</v>
+        <v>3985231.192542213</v>
       </c>
       <c r="I7">
-        <v>-773.3391234610853</v>
+        <v>1115017.088423914</v>
       </c>
       <c r="J7">
-        <v>1953.80760856673</v>
+        <v>4842980.515959131</v>
       </c>
       <c r="K7">
-        <v>1045.338773075422</v>
+        <v>3985737.805126721</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -693,31 +681,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>270.5454504252688</v>
+        <v>1116580.041950993</v>
       </c>
       <c r="G8">
-        <v>-115.8875928560852</v>
+        <v>4841122.568494664</v>
       </c>
       <c r="H8">
-        <v>852.4085229439501</v>
+        <v>3985231.192542213</v>
       </c>
       <c r="I8">
-        <v>-754.1018666999321</v>
+        <v>1115050.532552444</v>
       </c>
       <c r="J8">
-        <v>1899.698445081095</v>
+        <v>4842931.864365879</v>
       </c>
       <c r="K8">
-        <v>1219.666726500949</v>
+        <v>3985965.857814605</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -728,31 +716,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>270.5454504252688</v>
+        <v>1116580.041950993</v>
       </c>
       <c r="G9">
-        <v>-115.8875928560852</v>
+        <v>4841122.568494664</v>
       </c>
       <c r="H9">
-        <v>852.4085229439501</v>
+        <v>3985231.192542213</v>
       </c>
       <c r="I9">
-        <v>-734.3909101889873</v>
+        <v>1115084.800211872</v>
       </c>
       <c r="J9">
-        <v>1845.58928159546</v>
+        <v>4842883.212772628</v>
       </c>
       <c r="K9">
-        <v>1382.414746196623</v>
+        <v>3986178.761841815</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -763,31 +751,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>270.5454504252688</v>
+        <v>1116580.041950993</v>
       </c>
       <c r="G10">
-        <v>-96.75128925441331</v>
+        <v>4841139.08130707</v>
       </c>
       <c r="H10">
-        <v>852.4085229439501</v>
+        <v>3985231.192542213</v>
       </c>
       <c r="I10">
-        <v>-714.1945895077081</v>
+        <v>1115119.911680886</v>
       </c>
       <c r="J10">
-        <v>1791.480118109825</v>
+        <v>4842834.561179378</v>
       </c>
       <c r="K10">
-        <v>1533.582832162445</v>
+        <v>3986376.517208349</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -798,31 +786,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>209.9748304041603</v>
+        <v>1116531.361320165</v>
       </c>
       <c r="G11">
-        <v>-77.61498565274141</v>
+        <v>4841155.594119476</v>
       </c>
       <c r="H11">
-        <v>1050.161564362417</v>
+        <v>3985430.447092193</v>
       </c>
       <c r="I11">
-        <v>-693.5009530099264</v>
+        <v>1115155.887737524</v>
       </c>
       <c r="J11">
-        <v>1737.37095462419</v>
+        <v>4842785.909586127</v>
       </c>
       <c r="K11">
-        <v>1673.170984398413</v>
+        <v>3986559.123914209</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -833,31 +821,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>174.3926296920653</v>
+        <v>1116502.763891638</v>
       </c>
       <c r="G12">
-        <v>-58.47868205106953</v>
+        <v>4841172.106931883</v>
       </c>
       <c r="H12">
-        <v>1167.953389305745</v>
+        <v>3985549.133292424</v>
       </c>
       <c r="I12">
-        <v>-672.2977547511837</v>
+        <v>1115192.749671459</v>
       </c>
       <c r="J12">
-        <v>1683.261791138555</v>
+        <v>4842737.257992875</v>
       </c>
       <c r="K12">
-        <v>1801.17920290453</v>
+        <v>3986726.581959394</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -868,31 +856,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>151.9305341602708</v>
+        <v>1116484.711096738</v>
       </c>
       <c r="G13">
-        <v>-39.34237844939763</v>
+        <v>4841188.61974429</v>
       </c>
       <c r="H13">
-        <v>1252.131245347645</v>
+        <v>3985633.950298037</v>
       </c>
       <c r="I13">
-        <v>-650.5724472419035</v>
+        <v>1115230.519296604</v>
       </c>
       <c r="J13">
-        <v>1629.15262765292</v>
+        <v>4842688.606399625</v>
       </c>
       <c r="K13">
-        <v>1917.607487680795</v>
+        <v>3986878.891343903</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -903,31 +891,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>136.265559915396</v>
+        <v>1116472.121150855</v>
       </c>
       <c r="G14">
-        <v>-20.20607484772573</v>
+        <v>4841205.132556695</v>
       </c>
       <c r="H14">
-        <v>1317.680496749154</v>
+        <v>3985699.997254866</v>
       </c>
       <c r="I14">
-        <v>-628.3121740221242</v>
+        <v>1115269.218964022</v>
       </c>
       <c r="J14">
-        <v>1575.043464167285</v>
+        <v>4842639.954806373</v>
       </c>
       <c r="K14">
-        <v>2022.455838727206</v>
+        <v>3987016.052067738</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -938,31 +926,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>124.5790200162651</v>
+        <v>1116462.728674201</v>
       </c>
       <c r="G15">
-        <v>-1.069771246053845</v>
+        <v>4841221.645369102</v>
       </c>
       <c r="H15">
-        <v>1371.370418110385</v>
+        <v>3985754.094835578</v>
       </c>
       <c r="I15">
-        <v>-605.5037620533836</v>
+        <v>1115308.871575146</v>
       </c>
       <c r="J15">
-        <v>1520.93430068165</v>
+        <v>4842591.303213122</v>
       </c>
       <c r="K15">
-        <v>2115.724256043765</v>
+        <v>3987138.064130897</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -973,31 +961,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>115.4417777920587</v>
+        <v>1116455.385069078</v>
       </c>
       <c r="G16">
-        <v>18.06653235561805</v>
+        <v>4841238.158181507</v>
       </c>
       <c r="H16">
-        <v>1416.841862329042</v>
+        <v>3985799.911537509</v>
       </c>
       <c r="I16">
-        <v>-582.1337139232671</v>
+        <v>1115349.50059534</v>
       </c>
       <c r="J16">
-        <v>1466.825137196015</v>
+        <v>4842542.651619871</v>
       </c>
       <c r="K16">
-        <v>2197.412739630471</v>
+        <v>3987244.927533381</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1008,31 +996,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>108.0490835282541</v>
+        <v>1116449.443557828</v>
       </c>
       <c r="G17">
-        <v>37.20283595728996</v>
+        <v>4841254.670993914</v>
       </c>
       <c r="H17">
-        <v>1456.280058604535</v>
+        <v>3985839.64918197</v>
       </c>
       <c r="I17">
-        <v>-558.1881998579963</v>
+        <v>1115391.130067778</v>
       </c>
       <c r="J17">
-        <v>1412.715973710381</v>
+        <v>4842494.00002662</v>
       </c>
       <c r="K17">
-        <v>2267.521289487325</v>
+        <v>3987336.64227519</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1043,31 +1031,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>101.9105131247612</v>
+        <v>1116444.509986411</v>
       </c>
       <c r="G18">
-        <v>56.33913955896184</v>
+        <v>4841271.183806321</v>
       </c>
       <c r="H18">
-        <v>1491.100083360413</v>
+        <v>3985874.733589842</v>
       </c>
       <c r="I18">
-        <v>-533.6530495383374</v>
+        <v>1115433.784627676</v>
       </c>
       <c r="J18">
-        <v>1358.606810224746</v>
+        <v>4842445.348433369</v>
       </c>
       <c r="K18">
-        <v>2326.049905614327</v>
+        <v>3987413.208356325</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1078,31 +1066,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>96.70853657783614</v>
+        <v>1116440.32915584</v>
       </c>
       <c r="G19">
-        <v>75.47544316063376</v>
+        <v>4841287.696618726</v>
       </c>
       <c r="H19">
-        <v>1522.271012311463</v>
+        <v>3985906.141194883</v>
       </c>
       <c r="I19">
-        <v>-508.5137437139812</v>
+        <v>1115477.489516871</v>
       </c>
       <c r="J19">
-        <v>1304.497646739111</v>
+        <v>4842396.696840119</v>
       </c>
       <c r="K19">
-        <v>2372.998588011475</v>
+        <v>3987474.625776784</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1113,31 +1101,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>92.22754128939759</v>
+        <v>1116436.727778187</v>
       </c>
       <c r="G20">
-        <v>94.61174676230564</v>
+        <v>4841304.209431133</v>
       </c>
       <c r="H20">
-        <v>1550.485653657604</v>
+        <v>3985934.570065679</v>
       </c>
       <c r="I20">
-        <v>-482.7554056114374</v>
+        <v>1115522.270598754</v>
       </c>
       <c r="J20">
-        <v>1250.388483253476</v>
+        <v>4842348.045246867</v>
       </c>
       <c r="K20">
-        <v>2408.367336678772</v>
+        <v>3987520.894536568</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1148,31 +1136,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>88.31540086179238</v>
+        <v>1116433.583589407</v>
       </c>
       <c r="G21">
-        <v>113.7480503639775</v>
+        <v>4841320.72224354</v>
       </c>
       <c r="H21">
-        <v>1576.256506918919</v>
+        <v>3985960.536593084</v>
       </c>
       <c r="I21">
-        <v>-456.3627921303552</v>
+        <v>1115568.15437358</v>
       </c>
       <c r="J21">
-        <v>1196.279319767841</v>
+        <v>4842299.393653615</v>
       </c>
       <c r="K21">
-        <v>2432.156151616215</v>
+        <v>3987552.014635677</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1183,31 +1171,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>84.86135061863806</v>
+        <v>1116430.807567885</v>
       </c>
       <c r="G22">
-        <v>132.8843539656494</v>
+        <v>4841337.235055946</v>
       </c>
       <c r="H22">
-        <v>1599.973367488166</v>
+        <v>3985984.433532143</v>
       </c>
       <c r="I22">
-        <v>-429.3202848230603</v>
+        <v>1115615.16799415</v>
       </c>
       <c r="J22">
-        <v>1142.170156282206</v>
+        <v>4842250.742060365</v>
       </c>
       <c r="K22">
-        <v>2444.365032823806</v>
+        <v>3987567.986074111</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1218,31 +1206,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>81.78259356003906</v>
+        <v>1116428.333169642</v>
       </c>
       <c r="G23">
-        <v>152.0206575673213</v>
+        <v>4841353.747868353</v>
       </c>
       <c r="H23">
-        <v>1621.939618840253</v>
+        <v>3986006.566569878</v>
       </c>
       <c r="I23">
-        <v>-401.6118806519738</v>
+        <v>1115663.339281874</v>
       </c>
       <c r="J23">
-        <v>1088.060992796571</v>
+        <v>4842202.090467114</v>
       </c>
       <c r="K23">
-        <v>2444.993980301545</v>
+        <v>3987568.80885187</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1253,31 +1241,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>79.01584411786646</v>
+        <v>1116426.109532041</v>
       </c>
       <c r="G24">
-        <v>171.1569611689932</v>
+        <v>4841370.260680758</v>
       </c>
       <c r="H24">
-        <v>1642.396025998711</v>
+        <v>3986027.178299403</v>
       </c>
       <c r="I24">
-        <v>-373.2211825194389</v>
+        <v>1115712.696743242</v>
       </c>
       <c r="J24">
-        <v>1033.951829310936</v>
+        <v>4842153.438873862</v>
       </c>
       <c r="K24">
-        <v>2434.042994049431</v>
+        <v>3987554.482968953</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1288,31 +1276,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>76.51179633186024</v>
+        <v>1116424.097027863</v>
       </c>
       <c r="G25">
-        <v>190.2932647706651</v>
+        <v>4841386.773493164</v>
       </c>
       <c r="H25">
-        <v>1661.536864412041</v>
+        <v>3986046.464471272</v>
       </c>
       <c r="I25">
-        <v>-344.1313895643534</v>
+        <v>1115763.269586687</v>
       </c>
       <c r="J25">
-        <v>979.8426658253014</v>
+        <v>4842104.787280612</v>
       </c>
       <c r="K25">
-        <v>2411.512074067465</v>
+        <v>3987525.008425362</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1323,31 +1311,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>74.23139326316185</v>
+        <v>1116422.264267032</v>
       </c>
       <c r="G26">
-        <v>209.429568372337</v>
+        <v>4841403.286305571</v>
       </c>
       <c r="H26">
-        <v>1679.521168545607</v>
+        <v>3986064.585327473</v>
       </c>
       <c r="I26">
-        <v>-314.3252872198677</v>
+        <v>1115815.087739876</v>
       </c>
       <c r="J26">
-        <v>925.7335023396665</v>
+        <v>4842056.135687361</v>
       </c>
       <c r="K26">
-        <v>2377.401220355646</v>
+        <v>3987480.385221096</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1358,31 +1346,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>72.14324392198733</v>
+        <v>1116420.586020596</v>
       </c>
       <c r="G27">
-        <v>228.5658719740089</v>
+        <v>4841419.799117977</v>
       </c>
       <c r="H27">
-        <v>1696.480771536573</v>
+        <v>3986081.673702131</v>
       </c>
       <c r="I27">
-        <v>-283.7852370262606</v>
+        <v>1115868.181867416</v>
       </c>
       <c r="J27">
-        <v>871.6243388540315</v>
+        <v>4842007.484094109</v>
       </c>
       <c r="K27">
-        <v>2331.710432913974</v>
+        <v>3987420.613356154</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1393,31 +1381,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>70.22179301689032</v>
+        <v>1116419.041749757</v>
       </c>
       <c r="G28">
-        <v>247.7021755756808</v>
+        <v>4841436.311930384</v>
       </c>
       <c r="H28">
-        <v>1712.526175382914</v>
+        <v>3986097.840936272</v>
       </c>
       <c r="I28">
-        <v>-252.4931661929671</v>
+        <v>1115922.583389001</v>
       </c>
       <c r="J28">
-        <v>817.5151753683967</v>
+        <v>4841958.832500858</v>
       </c>
       <c r="K28">
-        <v>2274.43971174245</v>
+        <v>3987345.692830538</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1428,31 +1416,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>68.44599747662433</v>
+        <v>1116417.614542192</v>
       </c>
       <c r="G29">
-        <v>266.8384791773527</v>
+        <v>4841452.82474279</v>
       </c>
       <c r="H29">
-        <v>1727.750918343945</v>
+        <v>3986113.181278375</v>
       </c>
       <c r="I29">
-        <v>-220.4305569035806</v>
+        <v>1115978.324498007</v>
       </c>
       <c r="J29">
-        <v>763.4060118827617</v>
+        <v>4841910.180907607</v>
       </c>
       <c r="K29">
-        <v>2205.589056841074</v>
+        <v>3987255.623644247</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1463,31 +1451,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>66.798351976286</v>
+        <v>1116416.290328864</v>
       </c>
       <c r="G30">
-        <v>285.9747827790246</v>
+        <v>4841469.337555196</v>
       </c>
       <c r="H30">
-        <v>1742.234878815218</v>
+        <v>3986127.77521334</v>
       </c>
       <c r="I30">
-        <v>-187.5784353575027</v>
+        <v>1116035.43818054</v>
       </c>
       <c r="J30">
-        <v>709.2968483971267</v>
+        <v>4841861.529314357</v>
       </c>
       <c r="K30">
-        <v>2125.158468209844</v>
+        <v>3987150.405797281</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1498,31 +1486,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>65.26415974535487</v>
+        <v>1116415.057297972</v>
       </c>
       <c r="G31">
-        <v>305.1110863806965</v>
+        <v>4841485.850367602</v>
       </c>
       <c r="H31">
-        <v>1756.046812078512</v>
+        <v>3986141.692018498</v>
       </c>
       <c r="I31">
-        <v>-153.9173605417504</v>
+        <v>1116093.958234963</v>
       </c>
       <c r="J31">
-        <v>655.1876849114921</v>
+        <v>4841812.877721105</v>
       </c>
       <c r="K31">
-        <v>2033.147945848763</v>
+        <v>3987030.039289639</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1533,31 +1521,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>63.83097892757085</v>
+        <v>1116413.905449992</v>
       </c>
       <c r="G32">
-        <v>324.2473899823684</v>
+        <v>4841502.363180009</v>
       </c>
       <c r="H32">
-        <v>1769.246324216968</v>
+        <v>3986154.991752511</v>
       </c>
       <c r="I32">
-        <v>-119.4274127262812</v>
+        <v>1116153.919291888</v>
       </c>
       <c r="J32">
-        <v>601.078521425857</v>
+        <v>4841764.226127854</v>
       </c>
       <c r="K32">
-        <v>1929.557489757828</v>
+        <v>3986894.524121323</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1568,31 +1556,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>62.48819666496975</v>
+        <v>1116412.826255366</v>
       </c>
       <c r="G33">
-        <v>343.3836935840403</v>
+        <v>4841518.875992415</v>
       </c>
       <c r="H33">
-        <v>1781.885426702767</v>
+        <v>3986167.726821766</v>
       </c>
       <c r="I33">
-        <v>-84.08818167602604</v>
+        <v>1116215.356834677</v>
       </c>
       <c r="J33">
-        <v>546.9693579402223</v>
+        <v>4841715.574534603</v>
       </c>
       <c r="K33">
-        <v>1814.387099937042</v>
+        <v>3986743.860292331</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1603,31 +1591,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>61.22669750119828</v>
+        <v>1116411.812387999</v>
       </c>
       <c r="G34">
-        <v>362.5199971857122</v>
+        <v>4841535.388804821</v>
       </c>
       <c r="H34">
-        <v>1794.009774210416</v>
+        <v>3986179.943227588</v>
       </c>
       <c r="I34">
-        <v>-47.87875457265473</v>
+        <v>1116278.307220436</v>
       </c>
       <c r="J34">
-        <v>492.8601944545873</v>
+        <v>4841666.922941352</v>
       </c>
       <c r="K34">
-        <v>1687.636776386403</v>
+        <v>3986578.047802664</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1638,31 +1626,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>60.0386023856145</v>
+        <v>1116410.857515493</v>
       </c>
       <c r="G35">
-        <v>381.6563007873841</v>
+        <v>4841551.901617227</v>
       </c>
       <c r="H35">
-        <v>1805.659660090004</v>
+        <v>3986191.681569267</v>
       </c>
       <c r="I35">
-        <v>-10.77770363892517</v>
+        <v>1116342.80770153</v>
       </c>
       <c r="J35">
-        <v>438.7510309689523</v>
+        <v>4841618.2713481</v>
       </c>
       <c r="K35">
-        <v>1549.30651910591</v>
+        <v>3986397.086652323</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1673,31 +1661,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>58.91706118262007</v>
+        <v>1116409.956132393</v>
       </c>
       <c r="G36">
-        <v>400.792604389056</v>
+        <v>4841568.414429634</v>
       </c>
       <c r="H36">
-        <v>1816.870824296179</v>
+        <v>3986202.977858126</v>
       </c>
       <c r="I36">
-        <v>27.23692654170659</v>
+        <v>1116408.896447632</v>
       </c>
       <c r="J36">
-        <v>384.6418674833176</v>
+        <v>4841569.61975485</v>
       </c>
       <c r="K36">
-        <v>1399.396328095566</v>
+        <v>3986200.976841306</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1708,31 +1696,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>57.85608619376571</v>
+        <v>1116409.103426382</v>
       </c>
       <c r="G37">
-        <v>419.9289079907279</v>
+        <v>4841584.927242041</v>
       </c>
       <c r="H37">
-        <v>1827.675114637098</v>
+        <v>3986213.864183789</v>
       </c>
       <c r="I37">
-        <v>66.18763201771787</v>
+        <v>1116476.612568307</v>
       </c>
       <c r="J37">
-        <v>330.5327039976826</v>
+        <v>4841520.968161599</v>
       </c>
       <c r="K37">
-        <v>1237.906203355369</v>
+        <v>3985989.718369614</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1743,31 +1731,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>56.85041744776485</v>
+        <v>1116408.295170021</v>
       </c>
       <c r="G38">
-        <v>439.0652115923997</v>
+        <v>4841601.440054446</v>
       </c>
       <c r="H38">
-        <v>1838.101032182657</v>
+        <v>3986224.36926373</v>
       </c>
       <c r="I38">
-        <v>106.0974627820843</v>
+        <v>1116545.996136155</v>
       </c>
       <c r="J38">
-        <v>276.4235405120478</v>
+        <v>4841472.316568348</v>
       </c>
       <c r="K38">
-        <v>1064.83614488532</v>
+        <v>3985763.311237247</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1778,31 +1766,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>55.89541283670329</v>
+        <v>1116407.527632444</v>
       </c>
       <c r="G39">
-        <v>458.2015151940717</v>
+        <v>4841617.952866852</v>
       </c>
       <c r="H39">
-        <v>1848.174184362126</v>
+        <v>3986234.518899811</v>
       </c>
       <c r="I39">
-        <v>146.9900364126518</v>
+        <v>1116617.08821053</v>
       </c>
       <c r="J39">
-        <v>222.3143770264128</v>
+        <v>4841423.664975096</v>
       </c>
       <c r="K39">
-        <v>880.1861526854177</v>
+        <v>3985521.755444205</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1813,31 +1801,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>54.98695785990893</v>
+        <v>1116406.797506826</v>
       </c>
       <c r="G40">
-        <v>477.3378187957435</v>
+        <v>4841634.465679259</v>
       </c>
       <c r="H40">
-        <v>1857.917663887285</v>
+        <v>3986244.336360084</v>
       </c>
       <c r="I40">
-        <v>188.8895520483944</v>
+        <v>1116689.930861833</v>
       </c>
       <c r="J40">
-        <v>168.2052135407778</v>
+        <v>4841375.013381845</v>
       </c>
       <c r="K40">
-        <v>683.9562267556631</v>
+        <v>3985265.050990488</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1848,31 +1836,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>54.12139097094577</v>
+        <v>1116406.101850382</v>
       </c>
       <c r="G41">
-        <v>496.4741223974154</v>
+        <v>4841650.978491665</v>
       </c>
       <c r="H41">
-        <v>1867.352367611592</v>
+        <v>3986253.842700069</v>
       </c>
       <c r="I41">
-        <v>231.820804709819</v>
+        <v>1116764.56719641</v>
       </c>
       <c r="J41">
-        <v>114.0960500551431</v>
+        <v>4841326.361788594</v>
       </c>
       <c r="K41">
-        <v>476.1463670960564</v>
+        <v>3984993.197876096</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1883,31 +1871,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>53.29544143788358</v>
+        <v>1116405.438034421</v>
       </c>
       <c r="G42">
-        <v>515.6104259990873</v>
+        <v>4841667.491304072</v>
       </c>
       <c r="H42">
-        <v>1876.497266400241</v>
+        <v>3986263.057034674</v>
       </c>
       <c r="I42">
-        <v>275.809199972004</v>
+        <v>1116841.041382062</v>
       </c>
       <c r="J42">
-        <v>59.9868865695081</v>
+        <v>4841277.710195344</v>
       </c>
       <c r="K42">
-        <v>256.7565737065964</v>
+        <v>3984706.196101029</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1918,31 +1906,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>52.50617731194851</v>
+        <v>1116404.803702537</v>
       </c>
       <c r="G43">
-        <v>534.7467296007593</v>
+        <v>4841684.004116478</v>
       </c>
       <c r="H43">
-        <v>1885.369634774437</v>
+        <v>3986271.996769583</v>
       </c>
       <c r="I43">
-        <v>320.8807689989382</v>
+        <v>1116919.39867418</v>
       </c>
       <c r="J43">
-        <v>5.877723083873106</v>
+        <v>4841229.058602092</v>
       </c>
       <c r="K43">
-        <v>25.78684658728412</v>
+        <v>3984404.045665287</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1953,31 +1941,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>51.75096161751764</v>
+        <v>1116404.19673539</v>
       </c>
       <c r="G44">
-        <v>553.8830332024311</v>
+        <v>4841700.516928884</v>
       </c>
       <c r="H44">
-        <v>1893.985247317181</v>
+        <v>3986280.677799152</v>
       </c>
       <c r="I44">
-        <v>367.0621839480771</v>
+        <v>1116999.68544253</v>
       </c>
       <c r="J44">
-        <v>-48.23144040176163</v>
+        <v>4841180.407008842</v>
       </c>
       <c r="K44">
-        <v>-216.7628142618801</v>
+        <v>3984086.74656887</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1988,31 +1976,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>51.02741527145034</v>
+        <v>1116403.615220911</v>
       </c>
       <c r="G45">
-        <v>573.019336804103</v>
+        <v>4841717.029741291</v>
       </c>
       <c r="H45">
-        <v>1902.358547451591</v>
+        <v>3986289.114676472</v>
       </c>
       <c r="I45">
-        <v>414.3807737542161</v>
+        <v>1117081.949198688</v>
       </c>
       <c r="J45">
-        <v>-102.3406038873966</v>
+        <v>4841131.75541559</v>
       </c>
       <c r="K45">
-        <v>-470.8924088408975</v>
+        <v>3983754.298811778</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2023,31 +2011,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>50.3333855436201</v>
+        <v>1116403.057428949</v>
       </c>
       <c r="G46">
-        <v>592.155640405775</v>
+        <v>4841733.542553697</v>
       </c>
       <c r="H46">
-        <v>1910.502793127918</v>
+        <v>3986297.320760158</v>
       </c>
       <c r="I46">
-        <v>462.8645403020271</v>
+        <v>1117166.23862416</v>
       </c>
       <c r="J46">
-        <v>-156.4497673730316</v>
+        <v>4841083.103822338</v>
       </c>
       <c r="K46">
-        <v>-736.601937149768</v>
+        <v>3983406.70239401</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2058,31 +2046,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>49.66691910611655</v>
+        <v>1116402.521789614</v>
       </c>
       <c r="G47">
-        <v>611.2919440074468</v>
+        <v>4841750.055366103</v>
       </c>
       <c r="H47">
-        <v>1918.430183109557</v>
+        <v>3986305.308341599</v>
       </c>
       <c r="I47">
-        <v>512.5421749968307</v>
+        <v>1117252.603599189</v>
       </c>
       <c r="J47">
-        <v>-210.5589308586666</v>
+        <v>4841034.452229088</v>
       </c>
       <c r="K47">
-        <v>-1013.891399188491</v>
+        <v>3983043.957315568</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2093,31 +2081,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>49.02623890261081</v>
+        <v>1116402.006874686</v>
       </c>
       <c r="G48">
-        <v>630.4282476091187</v>
+        <v>4841766.568178509</v>
       </c>
       <c r="H48">
-        <v>1926.151966878138</v>
+        <v>3986313.088755689</v>
       </c>
       <c r="I48">
-        <v>563.4430757434076</v>
+        <v>1117341.095232274</v>
       </c>
       <c r="J48">
-        <v>-264.6680943443011</v>
+        <v>4840985.800635837</v>
       </c>
       <c r="K48">
-        <v>-1302.760794957064</v>
+        <v>3982666.063576451</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2128,31 +2116,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>48.40972421413274</v>
+        <v>1116401.511381592</v>
       </c>
       <c r="G49">
-        <v>649.5645512107907</v>
+        <v>4841783.080990915</v>
       </c>
       <c r="H49">
-        <v>1933.678540643126</v>
+        <v>3986320.672477575</v>
       </c>
       <c r="I49">
-        <v>615.5973643428995</v>
+        <v>1117431.765890413</v>
       </c>
       <c r="J49">
-        <v>-318.7772578299361</v>
+        <v>4840937.149042586</v>
       </c>
       <c r="K49">
-        <v>-1603.210124455491</v>
+        <v>3982273.021176659</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2163,31 +2151,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>47.81589341212125</v>
+        <v>1116401.034119545</v>
       </c>
       <c r="G50">
-        <v>668.7008548124625</v>
+        <v>4841799.593803322</v>
       </c>
       <c r="H50">
-        <v>1941.019531512241</v>
+        <v>3986328.069207464</v>
       </c>
       <c r="I50">
-        <v>669.0359043180878</v>
+        <v>1117524.669230093</v>
       </c>
       <c r="J50">
-        <v>-372.8864213155711</v>
+        <v>4840888.497449335</v>
       </c>
       <c r="K50">
-        <v>-1915.239387683772</v>
+        <v>3981864.830116191</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2198,31 +2186,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>47.24338898092977</v>
+        <v>1116400.573997512</v>
       </c>
       <c r="G51">
-        <v>687.8371584141344</v>
+        <v>4841816.106615729</v>
       </c>
       <c r="H51">
-        <v>1948.183871532512</v>
+        <v>3986335.287945221</v>
       </c>
       <c r="I51">
-        <v>723.7903191776097</v>
+        <v>1117619.860229044</v>
       </c>
       <c r="J51">
-        <v>-426.9955848012061</v>
+        <v>4840839.845856084</v>
       </c>
       <c r="K51">
-        <v>-2238.848584641905</v>
+        <v>3981441.490395049</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2233,31 +2221,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>46.69096446516541</v>
+        <v>1116400.130013714</v>
       </c>
       <c r="G52">
-        <v>706.9734620158063</v>
+        <v>4841832.619428135</v>
       </c>
       <c r="H52">
-        <v>1955.179863030465</v>
+        <v>3986342.337056211</v>
       </c>
       <c r="I52">
-        <v>779.8930111299101</v>
+        <v>1117717.395218769</v>
       </c>
       <c r="J52">
-        <v>-481.1047482868411</v>
+        <v>4840791.194262832</v>
       </c>
       <c r="K52">
-        <v>-2574.03771532989</v>
+        <v>3981003.002013231</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2268,31 +2256,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>46.15747305623138</v>
+        <v>1116399.701246462</v>
       </c>
       <c r="G53">
-        <v>726.1097656174782</v>
+        <v>4841849.132240541</v>
       </c>
       <c r="H53">
-        <v>1962.015236450276</v>
+        <v>3986349.224329574</v>
       </c>
       <c r="I53">
-        <v>837.3771802580043</v>
+        <v>1117817.331917886</v>
       </c>
       <c r="J53">
-        <v>-535.2139117724755</v>
+        <v>4840742.542669582</v>
       </c>
       <c r="K53">
-        <v>-2920.806779747726</v>
+        <v>3980549.364970738</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2303,31 +2291,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>45.6418575802531</v>
+        <v>1116399.286846103</v>
       </c>
       <c r="G54">
-        <v>745.2460692191501</v>
+        <v>4841865.645052948</v>
       </c>
       <c r="H54">
-        <v>1968.69720170036</v>
+        <v>3986355.957029964</v>
       </c>
       <c r="I54">
-        <v>896.2768441664128</v>
+        <v>1117919.729466278</v>
       </c>
       <c r="J54">
-        <v>-589.3230752581105</v>
+        <v>4840693.89107633</v>
       </c>
       <c r="K54">
-        <v>-3279.155777895416</v>
+        <v>3980080.579267571</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2335,34 +2323,34 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>114.5033801228122</v>
+        <v>1116578.380932295</v>
       </c>
       <c r="G55">
-        <v>-105.8736156729747</v>
+        <v>4841127.944111788</v>
       </c>
       <c r="H55">
-        <v>643.0012054651462</v>
+        <v>3985228.339521056</v>
       </c>
       <c r="I55">
-        <v>-1666.643227295757</v>
+        <v>1114860.939170658</v>
       </c>
       <c r="J55">
-        <v>2412.333172183395</v>
+        <v>4843228.091251302</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984368.081722266</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2370,34 +2358,34 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>114.5033801228122</v>
+        <v>1116578.380932295</v>
       </c>
       <c r="G56">
-        <v>-105.8736156729747</v>
+        <v>4841127.944111788</v>
       </c>
       <c r="H56">
-        <v>643.0012054651462</v>
+        <v>3985228.339521056</v>
       </c>
       <c r="I56">
-        <v>-1633.739252155824</v>
+        <v>1114890.553156011</v>
       </c>
       <c r="J56">
-        <v>2353.651252093691</v>
+        <v>4843179.439614682</v>
       </c>
       <c r="K56">
-        <v>338.5754135758569</v>
+        <v>3984671.877543491</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2405,34 +2393,34 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>114.5033801228122</v>
+        <v>1116578.380932295</v>
       </c>
       <c r="G57">
-        <v>-105.8736156729747</v>
+        <v>4841127.944111788</v>
       </c>
       <c r="H57">
-        <v>643.0012054651462</v>
+        <v>3985228.339521056</v>
       </c>
       <c r="I57">
-        <v>-1600.025046899172</v>
+        <v>1114920.89635851</v>
       </c>
       <c r="J57">
-        <v>2294.969332003988</v>
+        <v>4843130.787978061</v>
       </c>
       <c r="K57">
-        <v>660.2679050568415</v>
+        <v>3984960.52471252</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2440,34 +2428,34 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>114.5033801228122</v>
+        <v>1116578.380932295</v>
       </c>
       <c r="G58">
-        <v>-105.8736156729747</v>
+        <v>4841127.944111788</v>
       </c>
       <c r="H58">
-        <v>643.0012054651462</v>
+        <v>3985228.339521056</v>
       </c>
       <c r="I58">
-        <v>-1565.480660354576</v>
+        <v>1114951.986734455</v>
       </c>
       <c r="J58">
-        <v>2236.287411914284</v>
+        <v>4843082.136341442</v>
       </c>
       <c r="K58">
-        <v>965.077474442956</v>
+        <v>3985234.023229352</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2475,34 +2463,34 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>114.5033801228122</v>
+        <v>1116578.380932295</v>
       </c>
       <c r="G59">
-        <v>-105.8736156729747</v>
+        <v>4841127.944111788</v>
       </c>
       <c r="H59">
-        <v>643.0012054651462</v>
+        <v>3985228.339521056</v>
       </c>
       <c r="I59">
-        <v>-1530.085650071571</v>
+        <v>1114983.842682305</v>
       </c>
       <c r="J59">
-        <v>2177.60549182458</v>
+        <v>4843033.484704822</v>
       </c>
       <c r="K59">
-        <v>1253.004121734198</v>
+        <v>3985492.373093989</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2510,34 +2498,34 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>114.5033801228122</v>
+        <v>1116578.380932295</v>
       </c>
       <c r="G60">
-        <v>-105.8736156729747</v>
+        <v>4841127.944111788</v>
       </c>
       <c r="H60">
-        <v>643.0012054651462</v>
+        <v>3985228.339521056</v>
       </c>
       <c r="I60">
-        <v>-1493.81907022316</v>
+        <v>1115016.483053564</v>
       </c>
       <c r="J60">
-        <v>2118.923571734877</v>
+        <v>4842984.833068203</v>
       </c>
       <c r="K60">
-        <v>1524.047846930571</v>
+        <v>3985735.574306429</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2545,34 +2533,34 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>114.5033801228122</v>
+        <v>1116578.380932295</v>
       </c>
       <c r="G61">
-        <v>-105.8736156729747</v>
+        <v>4841127.944111788</v>
       </c>
       <c r="H61">
-        <v>643.0012054651462</v>
+        <v>3985228.339521056</v>
       </c>
       <c r="I61">
-        <v>-1456.659459210623</v>
+        <v>1115049.927163937</v>
       </c>
       <c r="J61">
-        <v>2060.241651645173</v>
+        <v>4842936.181431582</v>
       </c>
       <c r="K61">
-        <v>1778.208650032072</v>
+        <v>3985963.626866672</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2580,34 +2568,34 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>114.5033801228122</v>
+        <v>1116578.380932295</v>
       </c>
       <c r="G62">
-        <v>-105.8736156729747</v>
+        <v>4841127.944111788</v>
       </c>
       <c r="H62">
-        <v>643.0012054651462</v>
+        <v>3985228.339521056</v>
       </c>
       <c r="I62">
-        <v>-1418.584826963118</v>
+        <v>1115084.194804759</v>
       </c>
       <c r="J62">
-        <v>2001.559731555469</v>
+        <v>4842887.529794963</v>
       </c>
       <c r="K62">
-        <v>2015.486531038703</v>
+        <v>3986176.530774719</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2615,34 +2603,34 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>114.5033801228122</v>
+        <v>1116578.380932295</v>
       </c>
       <c r="G63">
-        <v>-88.39090157914767</v>
+        <v>4841144.45694253</v>
       </c>
       <c r="H63">
-        <v>643.0012054651462</v>
+        <v>3985228.339521056</v>
       </c>
       <c r="I63">
-        <v>-1379.572641924538</v>
+        <v>1115119.306254711</v>
       </c>
       <c r="J63">
-        <v>1942.877811465765</v>
+        <v>4842838.878158343</v>
       </c>
       <c r="K63">
-        <v>2235.881489950461</v>
+        <v>3986374.28603057</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2650,34 +2638,34 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>88.86798053413142</v>
+        <v>1116529.700373885</v>
       </c>
       <c r="G64">
-        <v>-70.90818748532061</v>
+        <v>4841160.969773272</v>
       </c>
       <c r="H64">
-        <v>792.1731583420589</v>
+        <v>3985427.593928389</v>
       </c>
       <c r="I64">
-        <v>-1339.599817719934</v>
+        <v>1115155.282291816</v>
       </c>
       <c r="J64">
-        <v>1884.195891376062</v>
+        <v>4842790.226521724</v>
       </c>
       <c r="K64">
-        <v>2439.393526767348</v>
+        <v>3986556.892634224</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2685,34 +2673,34 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>73.80846928624727</v>
+        <v>1116501.102987899</v>
       </c>
       <c r="G65">
-        <v>-53.42547339149357</v>
+        <v>4841177.482604015</v>
       </c>
       <c r="H65">
-        <v>881.0276024188447</v>
+        <v>3985546.280043653</v>
       </c>
       <c r="I65">
-        <v>-1298.642699493617</v>
+        <v>1115192.144205738</v>
       </c>
       <c r="J65">
-        <v>1825.513971286358</v>
+        <v>4842741.574885103</v>
       </c>
       <c r="K65">
-        <v>2626.022641489365</v>
+        <v>3986724.350585683</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2720,34 +2708,34 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>64.30180096493896</v>
+        <v>1116483.050219854</v>
       </c>
       <c r="G66">
-        <v>-35.94275929766651</v>
+        <v>4841193.995434757</v>
       </c>
       <c r="H66">
-        <v>944.5258681582319</v>
+        <v>3985631.096988545</v>
       </c>
       <c r="I66">
-        <v>-1256.677049910833</v>
+        <v>1115229.913810377</v>
       </c>
       <c r="J66">
-        <v>1766.832051196654</v>
+        <v>4842692.923248483</v>
       </c>
       <c r="K66">
-        <v>2795.768834116511</v>
+        <v>3986876.659884944</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2755,34 +2743,34 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>57.67188906749079</v>
+        <v>1116470.4602927</v>
       </c>
       <c r="G67">
-        <v>-18.46004520383945</v>
+        <v>4841210.508265499</v>
       </c>
       <c r="H67">
-        <v>993.9719336702721</v>
+        <v>3985697.143898091</v>
       </c>
       <c r="I67">
-        <v>-1213.678034814764</v>
+        <v>1115268.613456784</v>
       </c>
       <c r="J67">
-        <v>1708.150131106951</v>
+        <v>4842644.271611864</v>
       </c>
       <c r="K67">
-        <v>2948.632104648786</v>
+        <v>3987013.820532009</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2790,34 +2778,34 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>52.72577624878632</v>
+        <v>1116461.067830018</v>
       </c>
       <c r="G68">
-        <v>-0.9773311100124107</v>
+        <v>4841227.021096242</v>
       </c>
       <c r="H68">
-        <v>1034.472096711076</v>
+        <v>3985751.241440075</v>
       </c>
       <c r="I68">
-        <v>-1169.620208530322</v>
+        <v>1115308.26604638</v>
       </c>
       <c r="J68">
-        <v>1649.468211017247</v>
+        <v>4842595.619975244</v>
       </c>
       <c r="K68">
-        <v>3084.612453086189</v>
+        <v>3987135.832526879</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2825,34 +2813,34 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>48.85860672873739</v>
+        <v>1116453.724235819</v>
       </c>
       <c r="G69">
-        <v>16.50538298381465</v>
+        <v>4841243.533926983</v>
       </c>
       <c r="H69">
-        <v>1068.772778438023</v>
+        <v>3985797.058109207</v>
       </c>
       <c r="I69">
-        <v>-1124.477498806083</v>
+        <v>1115348.895044515</v>
       </c>
       <c r="J69">
-        <v>1590.786290927543</v>
+        <v>4842546.968338624</v>
       </c>
       <c r="K69">
-        <v>3203.709879428721</v>
+        <v>3987242.695869552</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2860,34 +2848,34 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>45.7297850091721</v>
+        <v>1116447.782733408</v>
       </c>
       <c r="G70">
-        <v>33.9880970776417</v>
+        <v>4841260.046757726</v>
       </c>
       <c r="H70">
-        <v>1098.522372751008</v>
+        <v>3985836.795725219</v>
       </c>
       <c r="I70">
-        <v>-1078.223191385416</v>
+        <v>1115390.524494352</v>
       </c>
       <c r="J70">
-        <v>1532.10437083784</v>
+        <v>4842498.316702004</v>
       </c>
       <c r="K70">
-        <v>3305.924383676382</v>
+        <v>3987334.410560028</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2895,34 +2883,34 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>43.13174812029842</v>
+        <v>1116442.84916933</v>
       </c>
       <c r="G71">
-        <v>51.47081117146875</v>
+        <v>4841276.559588469</v>
       </c>
       <c r="H71">
-        <v>1124.788320696988</v>
+        <v>3985871.880107973</v>
       </c>
       <c r="I71">
-        <v>-1030.829914197697</v>
+        <v>1115433.179031092</v>
       </c>
       <c r="J71">
-        <v>1473.422450748136</v>
+        <v>4842449.665065384</v>
       </c>
       <c r="K71">
-        <v>3391.255965829173</v>
+        <v>3987410.976598308</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2930,34 +2918,34 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>40.93010733496559</v>
+        <v>1116438.668344979</v>
       </c>
       <c r="G72">
-        <v>68.95352526529582</v>
+        <v>4841293.07241921</v>
       </c>
       <c r="H72">
-        <v>1148.301629575895</v>
+        <v>3985903.28769053</v>
       </c>
       <c r="I72">
-        <v>-982.2696211602467</v>
+        <v>1115476.883896558</v>
       </c>
       <c r="J72">
-        <v>1414.740530658432</v>
+        <v>4842401.013428764</v>
       </c>
       <c r="K72">
-        <v>3459.704625887092</v>
+        <v>3987472.393984392</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2965,34 +2953,34 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>39.03360859128283</v>
+        <v>1116435.066972683</v>
       </c>
       <c r="G73">
-        <v>86.43623935912287</v>
+        <v>4841309.585249953</v>
       </c>
       <c r="H73">
-        <v>1169.58490855424</v>
+        <v>3985931.716540975</v>
       </c>
       <c r="I73">
-        <v>-932.5135755813992</v>
+        <v>1115521.664954128</v>
       </c>
       <c r="J73">
-        <v>1356.058610568729</v>
+        <v>4842352.361792144</v>
       </c>
       <c r="K73">
-        <v>3511.27036385014</v>
+        <v>3987518.662718279</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3000,34 +2988,34 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>37.37786719266842</v>
+        <v>1116431.92278858</v>
       </c>
       <c r="G74">
-        <v>103.9189534529499</v>
+        <v>4841326.098080696</v>
       </c>
       <c r="H74">
-        <v>1189.024753730425</v>
+        <v>3985957.68304979</v>
       </c>
       <c r="I74">
-        <v>-881.5323331548956</v>
+        <v>1115567.548704043</v>
       </c>
       <c r="J74">
-        <v>1297.376690479025</v>
+        <v>4842303.710155524</v>
       </c>
       <c r="K74">
-        <v>3545.953179718317</v>
+        <v>3987549.78279997</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3035,34 +3023,34 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>35.91600402944202</v>
+        <v>1116429.146771188</v>
       </c>
       <c r="G75">
-        <v>121.401667546777</v>
+        <v>4841342.610911437</v>
       </c>
       <c r="H75">
-        <v>1206.915201239333</v>
+        <v>3985981.579971741</v>
       </c>
       <c r="I75">
-        <v>-829.2957245355218</v>
+        <v>1115614.562299087</v>
       </c>
       <c r="J75">
-        <v>1238.694770389322</v>
+        <v>4842255.058518905</v>
       </c>
       <c r="K75">
-        <v>3563.753073491623</v>
+        <v>3987565.754229465</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3070,34 +3058,34 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>34.61297679600522</v>
+        <v>1116426.672376626</v>
       </c>
       <c r="G76">
-        <v>138.884381640604</v>
+        <v>4841359.12374218</v>
       </c>
       <c r="H76">
-        <v>1223.485103720084</v>
+        <v>3986003.712993631</v>
       </c>
       <c r="I76">
-        <v>-775.7728374856947</v>
+        <v>1115662.733560658</v>
       </c>
       <c r="J76">
-        <v>1180.012850299618</v>
+        <v>4842206.406882285</v>
       </c>
       <c r="K76">
-        <v>3564.670045170058</v>
+        <v>3987566.577006764</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3105,34 +3093,34 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>33.44200104097519</v>
+        <v>1116424.448742333</v>
       </c>
       <c r="G77">
-        <v>156.3670957344311</v>
+        <v>4841375.636572923</v>
       </c>
       <c r="H77">
-        <v>1238.916078550024</v>
+        <v>3986024.324708401</v>
       </c>
       <c r="I77">
-        <v>-720.9319985824192</v>
+        <v>1115712.090995228</v>
       </c>
       <c r="J77">
-        <v>1121.330930209914</v>
+        <v>4842157.755245665</v>
       </c>
       <c r="K77">
-        <v>3548.704094753622</v>
+        <v>3987552.251131865</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3140,34 +3128,34 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>32.38220892458196</v>
+        <v>1116422.436241149</v>
       </c>
       <c r="G78">
-        <v>173.8498098282581</v>
+        <v>4841392.149403663</v>
       </c>
       <c r="H78">
-        <v>1253.354674413517</v>
+        <v>3986043.610866462</v>
       </c>
       <c r="I78">
-        <v>-664.7407544737965</v>
+        <v>1115762.663811217</v>
       </c>
       <c r="J78">
-        <v>1062.649010120211</v>
+        <v>4842109.103609045</v>
       </c>
       <c r="K78">
-        <v>3515.855222242314</v>
+        <v>3987522.776604771</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3175,34 +3163,34 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>31.41707031664027</v>
+        <v>1116420.603483043</v>
       </c>
       <c r="G79">
-        <v>191.3325239220852</v>
+        <v>4841408.662234406</v>
       </c>
       <c r="H79">
-        <v>1266.920856503528</v>
+        <v>3986061.73170969</v>
       </c>
       <c r="I79">
-        <v>-607.165852673996</v>
+        <v>1115814.481936273</v>
       </c>
       <c r="J79">
-        <v>1003.967090030507</v>
+        <v>4842060.451972425</v>
       </c>
       <c r="K79">
-        <v>3466.123427636136</v>
+        <v>3987478.15342548</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3210,34 +3198,34 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>30.53329955875148</v>
+        <v>1116418.925239104</v>
       </c>
       <c r="G80">
-        <v>208.8152380159122</v>
+        <v>4841425.175065148</v>
       </c>
       <c r="H80">
-        <v>1279.714071111165</v>
+        <v>3986078.820072115</v>
       </c>
       <c r="I80">
-        <v>-548.173221885314</v>
+        <v>1115867.576034987</v>
       </c>
       <c r="J80">
-        <v>945.2851699408029</v>
+        <v>4842011.800335805</v>
       </c>
       <c r="K80">
-        <v>3399.508710935086</v>
+        <v>3987418.381593993</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3245,34 +3233,34 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>29.7200808443809</v>
+        <v>1116417.380970563</v>
       </c>
       <c r="G81">
-        <v>226.2979521097393</v>
+        <v>4841441.68789589</v>
       </c>
       <c r="H81">
-        <v>1291.817673712111</v>
+        <v>3986094.987294682</v>
       </c>
       <c r="I81">
-        <v>-487.727951835686</v>
+        <v>1115921.977527036</v>
       </c>
       <c r="J81">
-        <v>886.6032498510995</v>
+        <v>4841963.148699185</v>
       </c>
       <c r="K81">
-        <v>3316.011072139166</v>
+        <v>3987343.46111031</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3280,34 +3268,34 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>28.96850808110637</v>
+        <v>1116415.95376512</v>
       </c>
       <c r="G82">
-        <v>243.7806662035664</v>
+        <v>4841458.200726633</v>
       </c>
       <c r="H82">
-        <v>1303.302223447759</v>
+        <v>3986110.327625803</v>
       </c>
       <c r="I82">
-        <v>-425.794272619714</v>
+        <v>1115977.718605778</v>
       </c>
       <c r="J82">
-        <v>827.9213297613957</v>
+        <v>4841914.497062566</v>
       </c>
       <c r="K82">
-        <v>3215.630511248374</v>
+        <v>3987253.391974431</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3315,34 +3303,34 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>28.27117246250209</v>
+        <v>1116414.629553762</v>
       </c>
       <c r="G83">
-        <v>261.2633802973934</v>
+        <v>4841474.713557375</v>
       </c>
       <c r="H83">
-        <v>1314.227975352225</v>
+        <v>3986124.92155032</v>
       </c>
       <c r="I83">
-        <v>-362.335533530989</v>
+        <v>1116034.832257303</v>
       </c>
       <c r="J83">
-        <v>769.2394096716919</v>
+        <v>4841865.845425946</v>
       </c>
       <c r="K83">
-        <v>3098.367028262711</v>
+        <v>3987148.174186355</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3350,34 +3338,34 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>27.62185385106864</v>
+        <v>1116413.396524705</v>
       </c>
       <c r="G84">
-        <v>278.7460943912205</v>
+        <v>4841491.226388117</v>
       </c>
       <c r="H84">
-        <v>1324.646793910526</v>
+        <v>3986138.838345515</v>
       </c>
       <c r="I84">
-        <v>-297.3141813731739</v>
+        <v>1116093.352279954</v>
       </c>
       <c r="J84">
-        <v>710.5574895819884</v>
+        <v>4841817.193789326</v>
       </c>
       <c r="K84">
-        <v>2964.220623182178</v>
+        <v>3987027.807746083</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3385,34 +3373,34 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>27.01528646024579</v>
+        <v>1116412.244678438</v>
       </c>
       <c r="G85">
-        <v>296.2288084850475</v>
+        <v>4841507.73921886</v>
       </c>
       <c r="H85">
-        <v>1334.603642050977</v>
+        <v>3986152.138070006</v>
       </c>
       <c r="I85">
-        <v>-230.6917382370197</v>
+        <v>1116153.313304325</v>
       </c>
       <c r="J85">
-        <v>651.8755694922846</v>
+        <v>4841768.542152706</v>
       </c>
       <c r="K85">
-        <v>2813.191296006773</v>
+        <v>3986892.292653614</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3420,34 +3408,34 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>26.44697859332324</v>
+        <v>1116411.165485418</v>
       </c>
       <c r="G86">
-        <v>313.7115225788746</v>
+        <v>4841524.252049602</v>
       </c>
       <c r="H86">
-        <v>1344.1377538244</v>
+        <v>3986164.873130145</v>
       </c>
       <c r="I86">
-        <v>-162.4287787301611</v>
+        <v>1116214.750813758</v>
       </c>
       <c r="J86">
-        <v>593.1936494025811</v>
+        <v>4841719.890516086</v>
       </c>
       <c r="K86">
-        <v>2645.279046736497</v>
+        <v>3986741.628908949</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3455,34 +3443,34 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>25.91307230124966</v>
+        <v>1116410.151619558</v>
       </c>
       <c r="G87">
-        <v>331.1942366727016</v>
+        <v>4841540.764880344</v>
       </c>
       <c r="H87">
-        <v>1353.283568129461</v>
+        <v>3986177.08952722</v>
       </c>
       <c r="I87">
-        <v>-92.48490664621724</v>
+        <v>1116277.701165339</v>
       </c>
       <c r="J87">
-        <v>534.5117293128773</v>
+        <v>4841671.238879466</v>
       </c>
       <c r="K87">
-        <v>2460.48387537135</v>
+        <v>3986575.816512088</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3490,34 +3478,34 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>25.41023292092408</v>
+        <v>1116409.196748473</v>
       </c>
       <c r="G88">
-        <v>348.6769507665287</v>
+        <v>4841557.277711086</v>
       </c>
       <c r="H88">
-        <v>1362.071479632545</v>
+        <v>3986188.827860496</v>
       </c>
       <c r="I88">
-        <v>-20.818731059389</v>
+        <v>1116342.201611415</v>
       </c>
       <c r="J88">
-        <v>475.8298092231735</v>
+        <v>4841622.587242846</v>
       </c>
       <c r="K88">
-        <v>2258.805781911331</v>
+        <v>3986394.85546303</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3525,34 +3513,34 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>24.93556125859154</v>
+        <v>1116408.295366714</v>
       </c>
       <c r="G89">
-        <v>366.1596648603557</v>
+        <v>4841573.790541829</v>
       </c>
       <c r="H89">
-        <v>1370.528448216508</v>
+        <v>3986200.124141268</v>
       </c>
       <c r="I89">
-        <v>52.61215816959251</v>
+        <v>1116408.290321635</v>
       </c>
       <c r="J89">
-        <v>417.14788913347</v>
+        <v>4841573.935606226</v>
       </c>
       <c r="K89">
-        <v>2040.244766356443</v>
+        <v>3986198.745761776</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3560,34 +3548,34 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>24.48652313113967</v>
+        <v>1116407.442661972</v>
       </c>
       <c r="G90">
-        <v>383.6423789541828</v>
+        <v>4841590.303372571</v>
       </c>
       <c r="H90">
-        <v>1378.678497783601</v>
+        <v>3986211.010459138</v>
       </c>
       <c r="I90">
-        <v>127.8512154906582</v>
+        <v>1116476.006405545</v>
       </c>
       <c r="J90">
-        <v>358.4659690437663</v>
+        <v>4841525.283969607</v>
       </c>
       <c r="K90">
-        <v>1804.800828706683</v>
+        <v>3985987.487408326</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3595,34 +3583,34 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>24.06089235257746</v>
+        <v>1116406.634406812</v>
       </c>
       <c r="G91">
-        <v>401.1250930480098</v>
+        <v>4841606.816203313</v>
       </c>
       <c r="H91">
-        <v>1386.543127675759</v>
+        <v>3986221.515531558</v>
       </c>
       <c r="I91">
-        <v>204.9429653795923</v>
+        <v>1116545.389935723</v>
       </c>
       <c r="J91">
-        <v>299.7840489540628</v>
+        <v>4841476.632332987</v>
       </c>
       <c r="K91">
-        <v>1552.473968962052</v>
+        <v>3985761.080402679</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3630,34 +3618,34 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>23.6567042362091</v>
+        <v>1116405.866870377</v>
       </c>
       <c r="G92">
-        <v>418.6078071418369</v>
+        <v>4841623.329034056</v>
       </c>
       <c r="H92">
-        <v>1394.141654461792</v>
+        <v>3986231.665160373</v>
       </c>
       <c r="I92">
-        <v>283.9330286864312</v>
+        <v>1116616.4819715</v>
       </c>
       <c r="J92">
-        <v>241.102128864359</v>
+        <v>4841427.980696367</v>
       </c>
       <c r="K92">
-        <v>1283.264187122549</v>
+        <v>3985519.524744836</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3665,34 +3653,34 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>23.2722173953887</v>
+        <v>1116405.136745846</v>
       </c>
       <c r="G93">
-        <v>436.0905212356639</v>
+        <v>4841639.841864798</v>
       </c>
       <c r="H93">
-        <v>1401.491497772209</v>
+        <v>3986241.482613618</v>
       </c>
       <c r="I93">
-        <v>364.868149632676</v>
+        <v>1116689.324583255</v>
       </c>
       <c r="J93">
-        <v>182.4202087746552</v>
+        <v>4841379.329059747</v>
       </c>
       <c r="K93">
-        <v>997.1714831881753</v>
+        <v>3985262.820434797</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3700,34 +3688,34 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>22.9058821480102</v>
+        <v>1116404.441090436</v>
       </c>
       <c r="G94">
-        <v>453.573235329491</v>
+        <v>4841656.35469554</v>
       </c>
       <c r="H94">
-        <v>1408.608420825704</v>
+        <v>3986250.988946797</v>
       </c>
       <c r="I94">
-        <v>447.7962234732748</v>
+        <v>1116763.96087731</v>
       </c>
       <c r="J94">
-        <v>123.7382886849517</v>
+        <v>4841330.677423127</v>
       </c>
       <c r="K94">
-        <v>694.1958571589313</v>
+        <v>3984990.967472561</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3735,34 +3723,34 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>22.55631421701073</v>
+        <v>1116403.777275463</v>
       </c>
       <c r="G95">
-        <v>471.0559494233181</v>
+        <v>4841672.867526283</v>
       </c>
       <c r="H95">
-        <v>1415.506734001468</v>
+        <v>3986260.203274806</v>
       </c>
       <c r="I95">
-        <v>532.7663248397712</v>
+        <v>1116840.435021442</v>
       </c>
       <c r="J95">
-        <v>65.0563685952479</v>
+        <v>4841282.025786508</v>
       </c>
       <c r="K95">
-        <v>374.3373090348152</v>
+        <v>3984703.965858129</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3770,34 +3758,34 @@
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>22.22227270906009</v>
+        <v>1116403.142944522</v>
       </c>
       <c r="G96">
-        <v>488.5386635171452</v>
+        <v>4841689.380357024</v>
       </c>
       <c r="H96">
-        <v>1422.199468067801</v>
+        <v>3986269.143003315</v>
       </c>
       <c r="I96">
-        <v>619.828736781357</v>
+        <v>1116918.792271019</v>
       </c>
       <c r="J96">
-        <v>6.374448505544128</v>
+        <v>4841233.374149887</v>
       </c>
       <c r="K96">
-        <v>37.59583881582833</v>
+        <v>3984401.815591501</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3805,34 +3793,34 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>21.90264157278261</v>
+        <v>1116402.535978279</v>
       </c>
       <c r="G97">
-        <v>506.0213776109722</v>
+        <v>4841705.893187766</v>
       </c>
       <c r="H97">
-        <v>1428.698522337779</v>
+        <v>3986277.824026669</v>
       </c>
       <c r="I97">
-        <v>709.0349805210532</v>
+        <v>1116999.078995779</v>
       </c>
       <c r="J97">
-        <v>-52.30747158415937</v>
+        <v>4841184.722513268</v>
       </c>
       <c r="K97">
-        <v>-316.0285534980287</v>
+        <v>3984084.516672676</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3840,34 +3828,34 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>21.59641390504698</v>
+        <v>1116401.954464664</v>
       </c>
       <c r="G98">
-        <v>523.5040917047992</v>
+        <v>4841722.406018509</v>
       </c>
       <c r="H98">
-        <v>1435.014791984582</v>
+        <v>3986286.260897949</v>
       </c>
       <c r="I98">
-        <v>800.4378459446006</v>
+        <v>1117081.342707274</v>
       </c>
       <c r="J98">
-        <v>-110.9893916738632</v>
+        <v>4841136.070876648</v>
       </c>
       <c r="K98">
-        <v>-686.5358679067577</v>
+        <v>3983752.069101656</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3875,34 +3863,34 @@
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>21.30267860246709</v>
+        <v>1116401.396673532</v>
       </c>
       <c r="G99">
-        <v>540.9868057986263</v>
+        <v>4841738.91884925</v>
       </c>
       <c r="H99">
-        <v>1441.158277938238</v>
+        <v>3986294.466975761</v>
       </c>
       <c r="I99">
-        <v>894.091422840109</v>
+        <v>1117165.632086983</v>
       </c>
       <c r="J99">
-        <v>-169.6713117635669</v>
+        <v>4841087.419240028</v>
       </c>
       <c r="K99">
-        <v>-1073.926104410359</v>
+        <v>3983404.472878438</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3910,34 +3898,34 @@
         <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>21.02060895497308</v>
+        <v>1116400.861034995</v>
       </c>
       <c r="G100">
-        <v>558.4695198924534</v>
+        <v>4841755.431679993</v>
       </c>
       <c r="H100">
-        <v>1447.138182147527</v>
+        <v>3986302.454551483</v>
       </c>
       <c r="I100">
-        <v>990.0511329069584</v>
+        <v>1117251.997015123</v>
       </c>
       <c r="J100">
-        <v>-228.3532318532707</v>
+        <v>4841038.767603408</v>
       </c>
       <c r="K100">
-        <v>-1478.19926300883</v>
+        <v>3983041.728003025</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3945,34 +3933,34 @@
         <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>20.74945285619609</v>
+        <v>1116400.346120832</v>
       </c>
       <c r="G101">
-        <v>575.9522339862804</v>
+        <v>4841771.944510736</v>
       </c>
       <c r="H101">
-        <v>1452.962990485189</v>
+        <v>3986310.234960003</v>
       </c>
       <c r="I101">
-        <v>1088.373762552889</v>
+        <v>1117340.488600163</v>
       </c>
       <c r="J101">
-        <v>-287.0351519429739</v>
+        <v>4840990.115966788</v>
       </c>
       <c r="K101">
-        <v>-1899.35534370217</v>
+        <v>3982663.834475414</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3980,34 +3968,34 @@
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>20.48852436667562</v>
+        <v>1116399.850628475</v>
       </c>
       <c r="G102">
-        <v>593.4349480801075</v>
+        <v>4841788.457341477</v>
       </c>
       <c r="H102">
-        <v>1458.640545171287</v>
+        <v>3986317.818676461</v>
       </c>
       <c r="I102">
-        <v>1189.117496498691</v>
+        <v>1117431.159209075</v>
       </c>
       <c r="J102">
-        <v>-345.7170720326777</v>
+        <v>4840941.464330168</v>
       </c>
       <c r="K102">
-        <v>-2337.394346490383</v>
+        <v>3982270.792295608</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4015,34 +4003,34 @@
         <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>20.23719641440558</v>
+        <v>1116399.373367139</v>
       </c>
       <c r="G103">
-        <v>610.9176621739344</v>
+        <v>4841804.97017222</v>
       </c>
       <c r="H103">
-        <v>1464.178108265854</v>
+        <v>3986325.215401054</v>
       </c>
       <c r="I103">
-        <v>1292.341952210372</v>
+        <v>1117524.062498316</v>
       </c>
       <c r="J103">
-        <v>-404.3989921223815</v>
+        <v>4840892.812693548</v>
       </c>
       <c r="K103">
-        <v>-2792.316271373468</v>
+        <v>3981862.601463606</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4050,34 +4038,34 @@
         <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>19.99489445588561</v>
+        <v>1116398.91324579</v>
       </c>
       <c r="G104">
-        <v>628.4003762677615</v>
+        <v>4841821.483002963</v>
       </c>
       <c r="H104">
-        <v>1469.582417520631</v>
+        <v>3986332.434133643</v>
       </c>
       <c r="I104">
-        <v>1398.108215179195</v>
+        <v>1117619.253445585</v>
       </c>
       <c r="J104">
-        <v>-463.0809122120853</v>
+        <v>4840844.161056928</v>
       </c>
       <c r="K104">
-        <v>-3264.121118351424</v>
+        <v>3981439.261979407</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4085,34 +4073,34 @@
         <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>19.76109095182262</v>
+        <v>1116398.469262652</v>
       </c>
       <c r="G105">
-        <v>645.8830903615886</v>
+        <v>4841837.995833704</v>
       </c>
       <c r="H105">
-        <v>1474.859735667418</v>
+        <v>3986339.483239586</v>
       </c>
       <c r="I105">
-        <v>1506.478875070449</v>
+        <v>1117716.788382356</v>
       </c>
       <c r="J105">
-        <v>-521.7628323017891</v>
+        <v>4840795.509420309</v>
       </c>
       <c r="K105">
-        <v>-3752.808887424251</v>
+        <v>3981000.773843011</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4120,34 +4108,34 @@
         <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>19.53530053659513</v>
+        <v>1116398.040496038</v>
       </c>
       <c r="G106">
-        <v>663.3658044554156</v>
+        <v>4841854.508664447</v>
       </c>
       <c r="H106">
-        <v>1480.015894047397</v>
+        <v>3986346.370508019</v>
       </c>
       <c r="I106">
-        <v>1617.518062762343</v>
+        <v>1117816.725027214</v>
       </c>
       <c r="J106">
-        <v>-580.4447523914923</v>
+        <v>4840746.857783689</v>
       </c>
       <c r="K106">
-        <v>-4258.379578591945</v>
+        <v>3980547.13705442</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4155,34 +4143,34 @@
         <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>19.31707578082733</v>
+        <v>1116397.626096296</v>
       </c>
       <c r="G107">
-        <v>680.8485185492426</v>
+        <v>4841871.02149519</v>
       </c>
       <c r="H107">
-        <v>1485.056331343638</v>
+        <v>3986353.103203589</v>
       </c>
       <c r="I107">
-        <v>1731.291488296973</v>
+        <v>1117919.122520013</v>
       </c>
       <c r="J107">
-        <v>-639.126672481196</v>
+        <v>4840698.206147068</v>
       </c>
       <c r="K107">
-        <v>-4780.833191854515</v>
+        <v>3980078.351613632</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4190,34 +4178,34 @@
         <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E108">
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>133.748310015333</v>
+        <v>1116577.036588199</v>
       </c>
       <c r="G108">
-        <v>-115.0610785237905</v>
+        <v>4841118.322414826</v>
       </c>
       <c r="H108">
-        <v>814.4087301499891</v>
+        <v>3985230.120276393</v>
       </c>
       <c r="I108">
-        <v>-1085.247584351338</v>
+        <v>1114860.7512341</v>
       </c>
       <c r="J108">
-        <v>1821.195087561521</v>
+        <v>4843224.278392353</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984366.996838871</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4225,34 +4213,34 @@
         <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E109">
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>133.748310015333</v>
+        <v>1116577.036588199</v>
       </c>
       <c r="G109">
-        <v>-115.0610785237905</v>
+        <v>4841118.322414826</v>
       </c>
       <c r="H109">
-        <v>814.4087301499891</v>
+        <v>3985230.120276393</v>
       </c>
       <c r="I109">
-        <v>-1063.821907307002</v>
+        <v>1114890.365214461</v>
       </c>
       <c r="J109">
-        <v>1776.89307081343</v>
+        <v>4843175.626794035</v>
       </c>
       <c r="K109">
-        <v>261.565025678265</v>
+        <v>3984670.792577377</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4260,34 +4248,34 @@
         <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E110">
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>133.748310015333</v>
+        <v>1116577.036588199</v>
       </c>
       <c r="G110">
-        <v>-115.0610785237905</v>
+        <v>4841118.322414826</v>
       </c>
       <c r="H110">
-        <v>814.4087301499891</v>
+        <v>3985230.120276393</v>
       </c>
       <c r="I110">
-        <v>-1041.86864267671</v>
+        <v>1114920.708411845</v>
       </c>
       <c r="J110">
-        <v>1732.591054065338</v>
+        <v>4843126.975195715</v>
       </c>
       <c r="K110">
-        <v>510.087220205177</v>
+        <v>3984959.439667812</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4295,34 +4283,34 @@
         <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E111">
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>133.748310015333</v>
+        <v>1116577.036588199</v>
       </c>
       <c r="G111">
-        <v>-115.0610785237905</v>
+        <v>4841118.322414826</v>
       </c>
       <c r="H111">
-        <v>814.4087301499891</v>
+        <v>3985230.120276393</v>
       </c>
       <c r="I111">
-        <v>-1019.374799101531</v>
+        <v>1114951.798782549</v>
       </c>
       <c r="J111">
-        <v>1688.289037317246</v>
+        <v>4843078.323597397</v>
       </c>
       <c r="K111">
-        <v>745.5665835807376</v>
+        <v>3985232.938110175</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4330,34 +4318,34 @@
         <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E112">
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>133.748310015333</v>
+        <v>1116577.036588199</v>
       </c>
       <c r="G112">
-        <v>-115.0610785237905</v>
+        <v>4841118.322414826</v>
       </c>
       <c r="H112">
-        <v>814.4087301499891</v>
+        <v>3985230.120276393</v>
       </c>
       <c r="I112">
-        <v>-996.3270653222702</v>
+        <v>1114983.654725029</v>
       </c>
       <c r="J112">
-        <v>1643.987020569155</v>
+        <v>4843029.671999078</v>
       </c>
       <c r="K112">
-        <v>968.0031158049454</v>
+        <v>3985491.287904466</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4365,34 +4353,34 @@
         <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E113">
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>133.748310015333</v>
+        <v>1116577.036588199</v>
       </c>
       <c r="G113">
-        <v>-115.0610785237905</v>
+        <v>4841118.322414826</v>
       </c>
       <c r="H113">
-        <v>814.4087301499891</v>
+        <v>3985230.120276393</v>
       </c>
       <c r="I113">
-        <v>-972.7118023022207</v>
+        <v>1115016.295090786</v>
       </c>
       <c r="J113">
-        <v>1599.685003821063</v>
+        <v>4842981.020400761</v>
       </c>
       <c r="K113">
-        <v>1177.396816877802</v>
+        <v>3985734.489050686</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4400,34 +4388,34 @@
         <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E114">
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>133.748310015333</v>
+        <v>1116577.036588199</v>
       </c>
       <c r="G114">
-        <v>-115.0610785237905</v>
+        <v>4841118.322414826</v>
       </c>
       <c r="H114">
-        <v>814.4087301499891</v>
+        <v>3985230.120276393</v>
       </c>
       <c r="I114">
-        <v>-948.5150351559463</v>
+        <v>1115049.73919552</v>
       </c>
       <c r="J114">
-        <v>1555.382987072971</v>
+        <v>4842932.368802441</v>
       </c>
       <c r="K114">
-        <v>1373.747686799307</v>
+        <v>3985962.541548834</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4435,34 +4423,34 @@
         <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E115">
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>133.748310015333</v>
+        <v>1116577.036588199</v>
       </c>
       <c r="G115">
-        <v>-115.0610785237905</v>
+        <v>4841118.322414826</v>
       </c>
       <c r="H115">
-        <v>814.4087301499891</v>
+        <v>3985230.120276393</v>
       </c>
       <c r="I115">
-        <v>-923.7224448793124</v>
+        <v>1115084.006830566</v>
       </c>
       <c r="J115">
-        <v>1511.080970324879</v>
+        <v>4842883.717204123</v>
       </c>
       <c r="K115">
-        <v>1557.055725569459</v>
+        <v>3986175.445398911</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4470,34 +4458,34 @@
         <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E116">
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>133.748310015333</v>
+        <v>1116577.036588199</v>
       </c>
       <c r="G116">
-        <v>-96.0612557032283</v>
+        <v>4841134.835212749</v>
       </c>
       <c r="H116">
-        <v>814.4087301499891</v>
+        <v>3985230.120276393</v>
       </c>
       <c r="I116">
-        <v>-898.3193598758814</v>
+        <v>1115119.118274599</v>
       </c>
       <c r="J116">
-        <v>1466.778953576787</v>
+        <v>4842835.065605804</v>
       </c>
       <c r="K116">
-        <v>1727.320933188259</v>
+        <v>3986373.200600916</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4505,34 +4493,34 @@
         <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E117">
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>103.8042911760958</v>
+        <v>1116528.356088399</v>
       </c>
       <c r="G117">
-        <v>-77.06143288266613</v>
+        <v>4841151.348010672</v>
       </c>
       <c r="H117">
-        <v>1003.346075342984</v>
+        <v>3985429.374772761</v>
       </c>
       <c r="I117">
-        <v>-872.2907472746505</v>
+        <v>1115155.09430564</v>
       </c>
       <c r="J117">
-        <v>1422.476936828696</v>
+        <v>4842786.414007486</v>
       </c>
       <c r="K117">
-        <v>1884.543309655706</v>
+        <v>3986555.807154849</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4540,34 +4528,34 @@
         <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E118">
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>86.21368226218377</v>
+        <v>1116499.758736844</v>
       </c>
       <c r="G118">
-        <v>-58.06161006210398</v>
+        <v>4841167.860808595</v>
       </c>
       <c r="H118">
-        <v>1115.886820762599</v>
+        <v>3985548.060941059</v>
       </c>
       <c r="I118">
-        <v>-845.6212040339989</v>
+        <v>1115191.956213348</v>
       </c>
       <c r="J118">
-        <v>1378.174920080604</v>
+        <v>4842737.762409166</v>
       </c>
       <c r="K118">
-        <v>2028.722854971802</v>
+        <v>3986723.265060711</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4575,34 +4563,34 @@
         <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E119">
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>75.10919940335879</v>
+        <v>1116481.705990534</v>
       </c>
       <c r="G119">
-        <v>-39.06178724154182</v>
+        <v>4841184.373606519</v>
       </c>
       <c r="H119">
-        <v>1196.312085175799</v>
+        <v>3985632.87792385</v>
       </c>
       <c r="I119">
-        <v>-818.2949478265755</v>
+        <v>1115229.72581162</v>
       </c>
       <c r="J119">
-        <v>1333.872903332512</v>
+        <v>4842689.110810848</v>
       </c>
       <c r="K119">
-        <v>2159.859569136546</v>
+        <v>3986875.574318501</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4610,34 +4598,34 @@
         <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D120" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E120">
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>67.36497813335647</v>
+        <v>1116469.116078539</v>
       </c>
       <c r="G120">
-        <v>-20.06196442097965</v>
+        <v>4841200.886404442</v>
       </c>
       <c r="H120">
-        <v>1258.939195486492</v>
+        <v>3985698.924862909</v>
       </c>
       <c r="I120">
-        <v>-790.2958076997395</v>
+        <v>1115268.425451503</v>
       </c>
       <c r="J120">
-        <v>1289.57088658442</v>
+        <v>4842640.45921253</v>
       </c>
       <c r="K120">
-        <v>2277.953452149938</v>
+        <v>3987012.73492822</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4645,34 +4633,34 @@
         <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D121" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E121">
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>61.58755715296829</v>
+        <v>1116459.723627165</v>
       </c>
       <c r="G121">
-        <v>-1.062141600417505</v>
+        <v>4841217.399202365</v>
       </c>
       <c r="H121">
-        <v>1310.235656632421</v>
+        <v>3985753.022429066</v>
       </c>
       <c r="I121">
-        <v>-761.6072145060168</v>
+        <v>1115308.078034414</v>
       </c>
       <c r="J121">
-        <v>1245.268869836329</v>
+        <v>4842591.807614212</v>
       </c>
       <c r="K121">
-        <v>2383.004504011977</v>
+        <v>3987134.746889867</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4680,34 +4668,34 @@
         <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D122" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E122">
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>57.07042073922582</v>
+        <v>1116452.380041808</v>
       </c>
       <c r="G122">
-        <v>17.93768122014466</v>
+        <v>4841233.912000287</v>
       </c>
       <c r="H122">
-        <v>1353.680014762845</v>
+        <v>3985798.83911867</v>
       </c>
       <c r="I122">
-        <v>-732.2121910979205</v>
+        <v>1115348.707025701</v>
       </c>
       <c r="J122">
-        <v>1200.966853088237</v>
+        <v>4842543.156015893</v>
       </c>
       <c r="K122">
-        <v>2475.012724722665</v>
+        <v>3987241.610203443</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4715,34 +4703,34 @@
         <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D123" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E123">
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>53.41572847702112</v>
+        <v>1116446.43854655</v>
       </c>
       <c r="G123">
-        <v>36.93750404070683</v>
+        <v>4841250.424798211</v>
       </c>
       <c r="H123">
-        <v>1391.360083044191</v>
+        <v>3985838.576752439</v>
       </c>
       <c r="I123">
-        <v>-702.0933422813252</v>
+        <v>1115390.33646852</v>
       </c>
       <c r="J123">
-        <v>1156.664836340145</v>
+        <v>4842494.504417574</v>
       </c>
       <c r="K123">
-        <v>2553.978114282</v>
+        <v>3987333.324868946</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4750,34 +4738,34 @@
         <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D124" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E124">
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>50.38103165958525</v>
+        <v>1116441.504988412</v>
       </c>
       <c r="G124">
-        <v>55.93732686126897</v>
+        <v>4841266.937596135</v>
       </c>
       <c r="H124">
-        <v>1424.627854754506</v>
+        <v>3985873.66115087</v>
       </c>
       <c r="I124">
-        <v>-671.2328445214545</v>
+        <v>1115432.990998069</v>
       </c>
       <c r="J124">
-        <v>1112.362819592053</v>
+        <v>4842445.852819256</v>
       </c>
       <c r="K124">
-        <v>2619.900672689984</v>
+        <v>3987409.890886378</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4785,34 +4773,34 @@
         <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D125" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E125">
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>47.80935443937339</v>
+        <v>1116437.324169094</v>
       </c>
       <c r="G125">
-        <v>74.93714968183116</v>
+        <v>4841283.450394057</v>
       </c>
       <c r="H125">
-        <v>1454.409204871637</v>
+        <v>3985905.068747461</v>
       </c>
       <c r="I125">
-        <v>-639.6124353953838</v>
+        <v>1115476.695856167</v>
       </c>
       <c r="J125">
-        <v>1068.060802843961</v>
+        <v>4842397.201220937</v>
       </c>
       <c r="K125">
-        <v>2672.780399946615</v>
+        <v>3987471.30825574</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4820,34 +4808,34 @@
         <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D126" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E126">
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>45.59410540793247</v>
+        <v>1116433.722801135</v>
       </c>
       <c r="G126">
-        <v>93.9369725023933</v>
+        <v>4841299.96319198</v>
       </c>
       <c r="H126">
-        <v>1481.366056676672</v>
+        <v>3985933.497610609</v>
       </c>
       <c r="I126">
-        <v>-607.2134027848268</v>
+        <v>1115521.476906189</v>
       </c>
       <c r="J126">
-        <v>1023.75878609587</v>
+        <v>4842348.549622618</v>
       </c>
       <c r="K126">
-        <v>2712.617296051894</v>
+        <v>3987517.576977029</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4855,34 +4843,34 @@
         <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D127" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E127">
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>43.66007853772498</v>
+        <v>1116430.578620817</v>
       </c>
       <c r="G127">
-        <v>112.9367953229554</v>
+        <v>4841316.475989904</v>
       </c>
       <c r="H127">
-        <v>1505.988062809298</v>
+        <v>3985959.464131027</v>
       </c>
       <c r="I127">
-        <v>-574.0165738027985</v>
+        <v>1115567.360648369</v>
       </c>
       <c r="J127">
-        <v>979.4567693477779</v>
+        <v>4842299.8980243</v>
       </c>
       <c r="K127">
-        <v>2739.411361005821</v>
+        <v>3987548.697050246</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4890,34 +4878,34 @@
         <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D128" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E128">
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>41.9525156051243</v>
+        <v>1116427.802606768</v>
       </c>
       <c r="G128">
-        <v>131.9366181435176</v>
+        <v>4841332.988787826</v>
       </c>
       <c r="H128">
-        <v>1528.647641848508</v>
+        <v>3985983.361063656</v>
       </c>
       <c r="I128">
-        <v>-540.0023034476101</v>
+        <v>1115614.374235488</v>
       </c>
       <c r="J128">
-        <v>935.1547525996864</v>
+        <v>4842251.246425982</v>
       </c>
       <c r="K128">
-        <v>2753.162594808397</v>
+        <v>3987564.668475392</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4925,34 +4913,34 @@
         <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C129" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D129" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E129">
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>40.43048463809779</v>
+        <v>1116425.328215184</v>
       </c>
       <c r="G129">
-        <v>150.9364409640798</v>
+        <v>4841349.50158575</v>
       </c>
       <c r="H129">
-        <v>1549.634652640029</v>
+        <v>3986005.494095436</v>
       </c>
       <c r="I129">
-        <v>-505.15046297748</v>
+        <v>1115662.545488939</v>
       </c>
       <c r="J129">
-        <v>890.8527358515945</v>
+        <v>4842202.594827663</v>
       </c>
       <c r="K129">
-        <v>2753.87099745962</v>
+        <v>3987565.491252467</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4960,34 +4948,34 @@
         <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D130" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E130">
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>39.06269944139694</v>
+        <v>1116423.104583568</v>
       </c>
       <c r="G130">
-        <v>169.936263784642</v>
+        <v>4841366.014383674</v>
       </c>
       <c r="H130">
-        <v>1569.179127066226</v>
+        <v>3986026.105819415</v>
       </c>
       <c r="I130">
-        <v>-469.4404279988785</v>
+        <v>1115711.902915189</v>
       </c>
       <c r="J130">
-        <v>846.5507191035026</v>
+        <v>4842153.943229344</v>
       </c>
       <c r="K130">
-        <v>2741.53656895949</v>
+        <v>3987551.165381469</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4995,34 +4983,34 @@
         <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D131" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E131">
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>37.82478485421936</v>
+        <v>1116421.092084808</v>
       </c>
       <c r="G131">
-        <v>188.9360866052041</v>
+        <v>4841382.527181596</v>
       </c>
       <c r="H131">
-        <v>1587.466679908106</v>
+        <v>3986045.391986095</v>
       </c>
       <c r="I131">
-        <v>-432.8510662615585</v>
+        <v>1115762.475722652</v>
       </c>
       <c r="J131">
-        <v>802.2487023554111</v>
+        <v>4842105.291631025</v>
       </c>
       <c r="K131">
-        <v>2716.159309308009</v>
+        <v>3987521.6908624</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5030,34 +5018,34 @@
         <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D132" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E132">
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>36.69743247733495</v>
+        <v>1116419.259328909</v>
       </c>
       <c r="G132">
-        <v>207.9359094257663</v>
+        <v>4841399.039979519</v>
       </c>
       <c r="H132">
-        <v>1604.64925598262</v>
+        <v>3986063.51283742</v>
       </c>
       <c r="I132">
-        <v>-395.3607251530526</v>
+        <v>1115814.293838973</v>
       </c>
       <c r="J132">
-        <v>757.9466856073192</v>
+        <v>4842056.640032707</v>
       </c>
       <c r="K132">
-        <v>2677.739218505176</v>
+        <v>3987477.06769526</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5065,34 +5053,34 @@
         <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D133" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E133">
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>35.66512369149984</v>
+        <v>1116417.58108699</v>
       </c>
       <c r="G133">
-        <v>226.9357322463284</v>
+        <v>4841415.552777442</v>
       </c>
       <c r="H133">
-        <v>1620.85281139525</v>
+        <v>3986080.601207481</v>
       </c>
       <c r="I133">
-        <v>-356.9472188852313</v>
+        <v>1115867.387928736</v>
       </c>
       <c r="J133">
-        <v>713.6446688592273</v>
+        <v>4842007.988434388</v>
       </c>
       <c r="K133">
-        <v>2626.276296550991</v>
+        <v>3987417.295880048</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5100,34 +5088,34 @@
         <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D134" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E134">
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>34.71522484481734</v>
+        <v>1116416.036820308</v>
       </c>
       <c r="G134">
-        <v>245.9355550668906</v>
+        <v>4841432.065575366</v>
       </c>
       <c r="H134">
-        <v>1636.182922039981</v>
+        <v>3986096.768437272</v>
       </c>
       <c r="I134">
-        <v>-317.5878153653427</v>
+        <v>1115921.789411614</v>
       </c>
       <c r="J134">
-        <v>669.3426521111357</v>
+        <v>4841959.33683607</v>
       </c>
       <c r="K134">
-        <v>2561.770543445453</v>
+        <v>3987342.375416764</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5135,34 +5123,34 @@
         <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D135" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E135">
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>33.83733297093811</v>
+        <v>1116414.609616584</v>
       </c>
       <c r="G135">
-        <v>264.9353778874528</v>
+        <v>4841448.578373289</v>
       </c>
       <c r="H135">
-        <v>1650.728956304081</v>
+        <v>3986112.108775247</v>
       </c>
       <c r="I135">
-        <v>-277.2592227437638</v>
+        <v>1115977.53048096</v>
       </c>
       <c r="J135">
-        <v>625.0406353630439</v>
+        <v>4841910.685237751</v>
       </c>
       <c r="K135">
-        <v>2484.221959188564</v>
+        <v>3987252.306305409</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5170,34 +5158,34 @@
         <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E136">
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>33.02279404290135</v>
+        <v>1116413.28540682</v>
       </c>
       <c r="G136">
-        <v>283.9352007080149</v>
+        <v>4841465.091171212</v>
       </c>
       <c r="H136">
-        <v>1664.5672316585</v>
+        <v>3986126.702706286</v>
       </c>
       <c r="I136">
-        <v>-235.9375756305035</v>
+        <v>1116034.644122858</v>
       </c>
       <c r="J136">
-        <v>580.738618614952</v>
+        <v>4841862.033639433</v>
       </c>
       <c r="K136">
-        <v>2393.630543780322</v>
+        <v>3987147.088545983</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5205,34 +5193,34 @@
         <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C137" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D137" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E137">
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>32.2643424858593</v>
+        <v>1116412.052379247</v>
       </c>
       <c r="G137">
-        <v>302.9350235285771</v>
+        <v>4841481.603969135</v>
       </c>
       <c r="H137">
-        <v>1677.763438321271</v>
+        <v>3986140.619507699</v>
       </c>
       <c r="I137">
-        <v>-193.5984209722975</v>
+        <v>1116093.164135643</v>
       </c>
       <c r="J137">
-        <v>536.4366018668604</v>
+        <v>4841813.382041113</v>
       </c>
       <c r="K137">
-        <v>2289.996297220729</v>
+        <v>3987026.722138484</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5240,34 +5228,34 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D138" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E138">
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>31.55582747655606</v>
+        <v>1116410.900534368</v>
       </c>
       <c r="G138">
-        <v>321.9348463491393</v>
+        <v>4841498.116767059</v>
       </c>
       <c r="H138">
-        <v>1690.374525176846</v>
+        <v>3986153.919238133</v>
       </c>
       <c r="I138">
-        <v>-150.2167035819413</v>
+        <v>1116153.125149906</v>
       </c>
       <c r="J138">
-        <v>492.1345851187685</v>
+        <v>4841764.730442795</v>
       </c>
       <c r="K138">
-        <v>2173.319219509782</v>
+        <v>3986891.207082915</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5275,34 +5263,34 @@
         <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D139" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E139">
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>30.89200238521131</v>
+        <v>1116409.821342646</v>
       </c>
       <c r="G139">
-        <v>340.9346691697014</v>
+        <v>4841514.629564981</v>
       </c>
       <c r="H139">
-        <v>1702.450185061317</v>
+        <v>3986166.654303962</v>
       </c>
       <c r="I139">
-        <v>-105.7667513112955</v>
+        <v>1116214.562648983</v>
       </c>
       <c r="J139">
-        <v>447.8325683706769</v>
+        <v>4841716.078844476</v>
       </c>
       <c r="K139">
-        <v>2043.599310647485</v>
+        <v>3986740.543379273</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5310,34 +5298,34 @@
         <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D140" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E140">
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>30.26836084559209</v>
+        <v>1116408.807478008</v>
       </c>
       <c r="G140">
-        <v>359.9344919902636</v>
+        <v>4841531.142362905</v>
       </c>
       <c r="H140">
-        <v>1714.03403739482</v>
+        <v>3986178.870706497</v>
       </c>
       <c r="I140">
-        <v>-60.22225985919126</v>
+        <v>1116277.512989952</v>
       </c>
       <c r="J140">
-        <v>403.5305516225851</v>
+        <v>4841667.427246159</v>
       </c>
       <c r="K140">
-        <v>1900.836570633835</v>
+        <v>3986574.73102756</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5345,34 +5333,34 @@
         <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D141" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E141">
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>29.68100772767042</v>
+        <v>1116407.852608072</v>
       </c>
       <c r="G141">
-        <v>378.9343148108257</v>
+        <v>4841547.655160828</v>
       </c>
       <c r="H141">
-        <v>1725.164579277272</v>
+        <v>3986190.609045018</v>
       </c>
       <c r="I141">
-        <v>-13.55627720524299</v>
+        <v>1116342.013425154</v>
       </c>
       <c r="J141">
-        <v>359.2285348744932</v>
+        <v>4841618.77564784</v>
       </c>
       <c r="K141">
-        <v>1745.030999468833</v>
+        <v>3986393.770027775</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5380,34 +5368,34 @@
         <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D142" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E142">
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>29.12655656141619</v>
+        <v>1116406.951227398</v>
       </c>
       <c r="G142">
-        <v>397.9341376313879</v>
+        <v>4841564.16795875</v>
       </c>
       <c r="H142">
-        <v>1735.875957400429</v>
+        <v>3986201.905330837</v>
       </c>
       <c r="I142">
-        <v>34.25881233964208</v>
+        <v>1116408.102124234</v>
       </c>
       <c r="J142">
-        <v>314.9265181264016</v>
+        <v>4841570.124049521</v>
       </c>
       <c r="K142">
-        <v>1576.182597152479</v>
+        <v>3986197.660379919</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5415,34 +5403,34 @@
         <v>8</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C143" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D143" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E143">
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>28.60204723588604</v>
+        <v>1116406.098523683</v>
       </c>
       <c r="G143">
-        <v>416.93396045195</v>
+        <v>4841580.680756674</v>
       </c>
       <c r="H143">
-        <v>1746.198599818797</v>
+        <v>3986212.791653571</v>
       </c>
       <c r="I143">
-        <v>83.25130447549408</v>
+        <v>1116475.818196729</v>
       </c>
       <c r="J143">
-        <v>270.6245013783098</v>
+        <v>4841521.472451203</v>
       </c>
       <c r="K143">
-        <v>1394.291363684773</v>
+        <v>3985986.402083991</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5450,34 +5438,34 @@
         <v>8</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C144" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D144" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E144">
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>28.10487940326707</v>
+        <v>1116405.290269497</v>
       </c>
       <c r="G144">
-        <v>435.9337832725122</v>
+        <v>4841597.193554597</v>
       </c>
       <c r="H144">
-        <v>1756.159737043942</v>
+        <v>3986223.296730686</v>
       </c>
       <c r="I144">
-        <v>133.4501916579256</v>
+        <v>1116545.201715211</v>
       </c>
       <c r="J144">
-        <v>226.3224846302181</v>
+        <v>4841472.820852884</v>
       </c>
       <c r="K144">
-        <v>1199.357299065715</v>
+        <v>3985759.995139992</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5485,34 +5473,34 @@
         <v>8</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D145" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E145">
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>27.63275816602003</v>
+        <v>1116404.522733986</v>
       </c>
       <c r="G145">
-        <v>454.9336060930744</v>
+        <v>4841613.70635252</v>
       </c>
       <c r="H145">
-        <v>1765.783834943334</v>
+        <v>3986233.446364036</v>
       </c>
       <c r="I145">
-        <v>184.8851802550946</v>
+        <v>1116616.293739004</v>
       </c>
       <c r="J145">
-        <v>182.0204678821263</v>
+        <v>4841424.169254565</v>
       </c>
       <c r="K145">
-        <v>991.3804032953039</v>
+        <v>3985518.439547921</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5520,34 +5508,34 @@
         <v>8</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C146" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D146" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E146">
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>27.18364945737137</v>
+        <v>1116403.792610333</v>
       </c>
       <c r="G146">
-        <v>473.9334289136365</v>
+        <v>4841630.219150444</v>
       </c>
       <c r="H146">
-        <v>1775.092956771353</v>
+        <v>3986243.263821668</v>
       </c>
       <c r="I146">
-        <v>237.5867081271474</v>
+        <v>1116689.136338479</v>
       </c>
       <c r="J146">
-        <v>137.7184511340344</v>
+        <v>4841375.517656246</v>
       </c>
       <c r="K146">
-        <v>770.3606763735415</v>
+        <v>3985261.735307778</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5555,34 +5543,34 @@
         <v>8</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D147" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E147">
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>26.75574313544994</v>
+        <v>1116403.096955761</v>
       </c>
       <c r="G147">
-        <v>492.9332517341987</v>
+        <v>4841646.731948366</v>
       </c>
       <c r="H147">
-        <v>1784.107067813928</v>
+        <v>3986252.770159095</v>
       </c>
       <c r="I147">
-        <v>291.5859626385322</v>
+        <v>1116763.772619952</v>
       </c>
       <c r="J147">
-        <v>93.41643438594282</v>
+        <v>4841326.866057929</v>
       </c>
       <c r="K147">
-        <v>536.2981183004274</v>
+        <v>3984989.882419564</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5590,34 +5578,34 @@
         <v>8</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C148" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D148" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E148">
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>26.34742226355439</v>
+        <v>1116402.433141587</v>
       </c>
       <c r="G148">
-        <v>511.9330745547608</v>
+        <v>4841663.24474629</v>
       </c>
       <c r="H148">
-        <v>1792.844293227972</v>
+        <v>3986261.98449122</v>
       </c>
       <c r="I148">
-        <v>346.9148991138577</v>
+        <v>1116840.246751193</v>
       </c>
       <c r="J148">
-        <v>49.11441763785098</v>
+        <v>4841278.21445961</v>
       </c>
       <c r="K148">
-        <v>289.1927290759605</v>
+        <v>3984702.880883278</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5625,34 +5613,34 @@
         <v>8</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D149" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E149">
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>25.9572373876542</v>
+        <v>1116401.79881141</v>
       </c>
       <c r="G149">
-        <v>530.932897375323</v>
+        <v>4841679.757544213</v>
       </c>
       <c r="H149">
-        <v>1801.321137448272</v>
+        <v>3986270.924223724</v>
       </c>
       <c r="I149">
-        <v>403.6062597481995</v>
+        <v>1116918.603987561</v>
       </c>
       <c r="J149">
-        <v>4.812400889759136</v>
+        <v>4841229.562861291</v>
       </c>
       <c r="K149">
-        <v>29.04450870014169</v>
+        <v>3984400.730698921</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5660,34 +5648,34 @@
         <v>8</v>
       </c>
       <c r="B150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D150" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E150">
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>25.58388487823883</v>
+        <v>1116401.191845897</v>
       </c>
       <c r="G150">
-        <v>549.9327201958852</v>
+        <v>4841696.270342136</v>
       </c>
       <c r="H150">
-        <v>1809.552671837637</v>
+        <v>3986279.605250957</v>
       </c>
       <c r="I150">
-        <v>461.693592983066</v>
+        <v>1116998.890698787</v>
       </c>
       <c r="J150">
-        <v>-39.4896158583325</v>
+        <v>4841180.911262972</v>
       </c>
       <c r="K150">
-        <v>-244.1465428270284</v>
+        <v>3984083.431866492</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5695,34 +5683,34 @@
         <v>8</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D151" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E151">
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>25.2261885989181</v>
+        <v>1116400.610332983</v>
       </c>
       <c r="G151">
-        <v>568.9325430164473</v>
+        <v>4841712.78314006</v>
       </c>
       <c r="H151">
-        <v>1817.552695941195</v>
+        <v>3986288.042126007</v>
       </c>
       <c r="I151">
-        <v>521.2112733594747</v>
+        <v>1117081.154396414</v>
       </c>
       <c r="J151">
-        <v>-83.79163260642434</v>
+        <v>4841132.259664654</v>
       </c>
       <c r="K151">
-        <v>-530.3804255055514</v>
+        <v>3983750.984385991</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5730,34 +5718,34 @@
         <v>8</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D152" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E152">
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>24.88308431440034</v>
+        <v>1116400.052542523</v>
       </c>
       <c r="G152">
-        <v>587.9323658370096</v>
+        <v>4841729.295937981</v>
       </c>
       <c r="H152">
-        <v>1825.333876678782</v>
+        <v>3986296.248207486</v>
       </c>
       <c r="I152">
-        <v>582.194521859891</v>
+        <v>1117165.443761914</v>
       </c>
       <c r="J152">
-        <v>-128.0936493545162</v>
+        <v>4841083.608066334</v>
       </c>
       <c r="K152">
-        <v>-829.6571393354271</v>
+        <v>3983403.388257419</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5765,34 +5753,34 @@
         <v>8</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D153" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E153">
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>24.55360636695039</v>
+        <v>1116399.51690463</v>
       </c>
       <c r="G153">
-        <v>606.9321886575716</v>
+        <v>4841745.808735905</v>
       </c>
       <c r="H153">
-        <v>1832.907869001211</v>
+        <v>3986304.235786777</v>
       </c>
       <c r="I153">
-        <v>644.67942675107</v>
+        <v>1117251.808675495</v>
       </c>
       <c r="J153">
-        <v>-172.395666102608</v>
+        <v>4841034.956468016</v>
       </c>
       <c r="K153">
-        <v>-1141.976684316654</v>
+        <v>3983040.643480776</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5800,34 +5788,34 @@
         <v>8</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C154" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D154" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E154">
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>24.2368762414041</v>
+        <v>1116399.001991088</v>
       </c>
       <c r="G154">
-        <v>625.9320114781337</v>
+        <v>4841762.321533829</v>
       </c>
       <c r="H154">
-        <v>1840.285420895863</v>
+        <v>3986312.016198773</v>
       </c>
       <c r="I154">
-        <v>708.7029649401354</v>
+        <v>1117340.300245618</v>
       </c>
       <c r="J154">
-        <v>-216.6976828506994</v>
+        <v>4840986.304869698</v>
       </c>
       <c r="K154">
-        <v>-1467.339060449232</v>
+        <v>3982662.75005606</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5835,34 +5823,34 @@
         <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D155" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E155">
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>23.93209271037833</v>
+        <v>1116398.506499327</v>
       </c>
       <c r="G155">
-        <v>644.931834298696</v>
+        <v>4841778.834331751</v>
       </c>
       <c r="H155">
-        <v>1847.476465116249</v>
+        <v>3986319.59991862</v>
       </c>
       <c r="I155">
-        <v>774.3030238565324</v>
+        <v>1117430.970839245</v>
       </c>
       <c r="J155">
-        <v>-260.9996995987913</v>
+        <v>4840937.65327138</v>
       </c>
       <c r="K155">
-        <v>-1805.744267733163</v>
+        <v>3982269.707983274</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5870,34 +5858,34 @@
         <v>8</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C156" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D156" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E156">
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>23.63852330797573</v>
+        <v>1116398.029238565</v>
       </c>
       <c r="G156">
-        <v>663.9316571192581</v>
+        <v>4841795.347129675</v>
       </c>
       <c r="H156">
-        <v>1854.490199600168</v>
+        <v>3986326.996646519</v>
       </c>
       <c r="I156">
-        <v>841.5184238727975</v>
+        <v>1117523.874112825</v>
       </c>
       <c r="J156">
-        <v>-305.3017163468832</v>
+        <v>4840889.00167306</v>
       </c>
       <c r="K156">
-        <v>-2157.192306168447</v>
+        <v>3981861.517262415</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5905,34 +5893,34 @@
         <v>8</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C157" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D157" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E157">
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>23.35549692542971</v>
+        <v>1116397.56911777</v>
       </c>
       <c r="G157">
-        <v>682.9314799398202</v>
+        <v>4841811.859927598</v>
       </c>
       <c r="H157">
-        <v>1861.335158210062</v>
+        <v>3986334.215382333</v>
       </c>
       <c r="I157">
-        <v>910.3889412774289</v>
+        <v>1117619.065044047</v>
       </c>
       <c r="J157">
-        <v>-349.603733094975</v>
+        <v>4840840.350074742</v>
       </c>
       <c r="K157">
-        <v>-2521.683175755083</v>
+        <v>3981438.177893485</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5940,34 +5928,34 @@
         <v>8</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C158" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D158" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E158">
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>23.08239735832045</v>
+        <v>1116397.125135167</v>
       </c>
       <c r="G158">
-        <v>701.9313027603824</v>
+        <v>4841828.372725521</v>
       </c>
       <c r="H158">
-        <v>1868.01927316038</v>
+        <v>3986341.264491427</v>
       </c>
       <c r="I158">
-        <v>980.955331813436</v>
+        <v>1117716.599964376</v>
       </c>
       <c r="J158">
-        <v>-393.9057498430668</v>
+        <v>4840791.698476424</v>
       </c>
       <c r="K158">
-        <v>-2899.21687649307</v>
+        <v>3980999.689876483</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5975,34 +5963,34 @@
         <v>8</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C159" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D159" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E159">
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>22.81865766415643</v>
+        <v>1116396.696369069</v>
       </c>
       <c r="G159">
-        <v>720.9311255809446</v>
+        <v>4841844.885523444</v>
       </c>
       <c r="H159">
-        <v>1874.549930277349</v>
+        <v>3986348.151762937</v>
       </c>
       <c r="I159">
-        <v>1053.259354796502</v>
+        <v>1117816.536592388</v>
       </c>
       <c r="J159">
-        <v>-438.2077665911582</v>
+        <v>4840743.046878105</v>
       </c>
       <c r="K159">
-        <v>-3289.793408382407</v>
+        <v>3980546.05321141</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6010,34 +5998,34 @@
         <v>8</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C160" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D160" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E160">
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>22.56375521275152</v>
+        <v>1116396.281969826</v>
       </c>
       <c r="G160">
-        <v>739.9309484015067</v>
+        <v>4841861.398321368</v>
       </c>
       <c r="H160">
-        <v>1880.934018056567</v>
+        <v>3986354.884461515</v>
       </c>
       <c r="I160">
-        <v>1127.343797827045</v>
+        <v>1117918.934067925</v>
       </c>
       <c r="J160">
-        <v>-482.5097833392501</v>
+        <v>4840694.395279787</v>
       </c>
       <c r="K160">
-        <v>-3693.412771423099</v>
+        <v>3980077.267898266</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6045,34 +6033,34 @@
         <v>8</v>
       </c>
       <c r="B161" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C161" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D161" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E161">
         <v>152.142</v>
       </c>
       <c r="F161">
-        <v>180.0122671603925</v>
+        <v>1116577.264016621</v>
       </c>
       <c r="G161">
-        <v>-82.27627087289666</v>
+        <v>4841127.356954032</v>
       </c>
       <c r="H161">
-        <v>268.5386304129713</v>
+        <v>3985228.705002858</v>
       </c>
       <c r="I161">
-        <v>-1657.796211162039</v>
+        <v>1114861.258650062</v>
       </c>
       <c r="J161">
-        <v>2566.054481190839</v>
+        <v>4843225.776527115</v>
       </c>
       <c r="K161">
-        <v>0</v>
+        <v>3984366.611745665</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6080,34 +6068,34 @@
         <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D162" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E162">
         <v>153.142</v>
       </c>
       <c r="F162">
-        <v>180.0122671603925</v>
+        <v>1116577.264016621</v>
       </c>
       <c r="G162">
-        <v>-82.27627087289666</v>
+        <v>4841127.356954032</v>
       </c>
       <c r="H162">
-        <v>268.5386304129713</v>
+        <v>3985228.705002858</v>
       </c>
       <c r="I162">
-        <v>-1625.066899677866</v>
+        <v>1114890.872643902</v>
       </c>
       <c r="J162">
-        <v>2503.633168186725</v>
+        <v>4843177.124913747</v>
       </c>
       <c r="K162">
-        <v>258.2948290660835</v>
+        <v>3984670.407454808</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6115,34 +6103,34 @@
         <v>8</v>
       </c>
       <c r="B163" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C163" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D163" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E163">
         <v>154.142</v>
       </c>
       <c r="F163">
-        <v>180.0122671603925</v>
+        <v>1116577.264016621</v>
       </c>
       <c r="G163">
-        <v>-82.27627087289666</v>
+        <v>4841127.356954032</v>
       </c>
       <c r="H163">
-        <v>268.5386304129713</v>
+        <v>3985228.705002858</v>
       </c>
       <c r="I163">
-        <v>-1591.531659008809</v>
+        <v>1114921.215855096</v>
       </c>
       <c r="J163">
-        <v>2441.211855182612</v>
+        <v>4843128.473300379</v>
       </c>
       <c r="K163">
-        <v>503.7098939739404</v>
+        <v>3984959.054517345</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6150,34 +6138,34 @@
         <v>8</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C164" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D164" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E164">
         <v>155.142</v>
       </c>
       <c r="F164">
-        <v>180.0122671603925</v>
+        <v>1116577.264016621</v>
       </c>
       <c r="G164">
-        <v>-82.27627087289666</v>
+        <v>4841127.356954032</v>
       </c>
       <c r="H164">
-        <v>268.5386304129713</v>
+        <v>3985228.705002858</v>
       </c>
       <c r="I164">
-        <v>-1557.170643890133</v>
+        <v>1114952.30623995</v>
       </c>
       <c r="J164">
-        <v>2378.790542178498</v>
+        <v>4843079.821687011</v>
       </c>
       <c r="K164">
-        <v>736.2451947235726</v>
+        <v>3985232.552933274</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6185,34 +6173,34 @@
         <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C165" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D165" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E165">
         <v>156.142</v>
       </c>
       <c r="F165">
-        <v>180.0122671603925</v>
+        <v>1116577.264016621</v>
       </c>
       <c r="G165">
-        <v>-82.27627087289666</v>
+        <v>4841127.356954032</v>
       </c>
       <c r="H165">
-        <v>268.5386304129713</v>
+        <v>3985228.705002858</v>
       </c>
       <c r="I165">
-        <v>-1521.963520385713</v>
+        <v>1114984.162196929</v>
       </c>
       <c r="J165">
-        <v>2316.369229174384</v>
+        <v>4843031.170073643</v>
       </c>
       <c r="K165">
-        <v>955.9007313149783</v>
+        <v>3985490.902702596</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6220,34 +6208,34 @@
         <v>8</v>
       </c>
       <c r="B166" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C166" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D166" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E166">
         <v>157.142</v>
       </c>
       <c r="F166">
-        <v>180.0122671603925</v>
+        <v>1116577.264016621</v>
       </c>
       <c r="G166">
-        <v>-82.27627087289666</v>
+        <v>4841127.356954032</v>
       </c>
       <c r="H166">
-        <v>268.5386304129713</v>
+        <v>3985228.705002858</v>
       </c>
       <c r="I166">
-        <v>-1485.889453854957</v>
+        <v>1115016.802577542</v>
       </c>
       <c r="J166">
-        <v>2253.94791617027</v>
+        <v>4842982.518460277</v>
       </c>
       <c r="K166">
-        <v>1162.67650374816</v>
+        <v>3985734.10382531</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6255,34 +6243,34 @@
         <v>8</v>
       </c>
       <c r="B167" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C167" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D167" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E167">
         <v>158.142</v>
       </c>
       <c r="F167">
-        <v>180.0122671603925</v>
+        <v>1116577.264016621</v>
       </c>
       <c r="G167">
-        <v>-82.27627087289666</v>
+        <v>4841127.356954032</v>
       </c>
       <c r="H167">
-        <v>268.5386304129713</v>
+        <v>3985228.705002858</v>
       </c>
       <c r="I167">
-        <v>-1448.927096623413</v>
+        <v>1115050.246697498</v>
       </c>
       <c r="J167">
-        <v>2191.526603166155</v>
+        <v>4842933.866846908</v>
       </c>
       <c r="K167">
-        <v>1356.572512023115</v>
+        <v>3985962.156301416</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6290,34 +6278,34 @@
         <v>8</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C168" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D168" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E168">
         <v>159.142</v>
       </c>
       <c r="F168">
-        <v>180.0122671603925</v>
+        <v>1116577.264016621</v>
       </c>
       <c r="G168">
-        <v>-82.27627087289666</v>
+        <v>4841127.356954032</v>
       </c>
       <c r="H168">
-        <v>268.5386304129713</v>
+        <v>3985228.705002858</v>
       </c>
       <c r="I168">
-        <v>-1411.054575349788</v>
+        <v>1115084.51434814</v>
       </c>
       <c r="J168">
-        <v>2129.105290162041</v>
+        <v>4842885.21523354</v>
       </c>
       <c r="K168">
-        <v>1537.588756139845</v>
+        <v>3986175.060130916</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6325,34 +6313,34 @@
         <v>8</v>
       </c>
       <c r="B169" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C169" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D169" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E169">
         <v>160.142</v>
       </c>
       <c r="F169">
-        <v>180.0122671603925</v>
+        <v>1116577.264016621</v>
       </c>
       <c r="G169">
-        <v>-68.69014262711983</v>
+        <v>4841143.869782772</v>
       </c>
       <c r="H169">
-        <v>268.5386304129713</v>
+        <v>3985228.705002858</v>
       </c>
       <c r="I169">
-        <v>-1372.249478081881</v>
+        <v>1115119.625808154</v>
       </c>
       <c r="J169">
-        <v>2066.683977157928</v>
+        <v>4842836.563620172</v>
       </c>
       <c r="K169">
-        <v>1705.725236098348</v>
+        <v>3986372.815313807</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6360,34 +6348,34 @@
         <v>8</v>
       </c>
       <c r="B170" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C170" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D170" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E170">
         <v>161.142</v>
       </c>
       <c r="F170">
-        <v>139.7105189100659</v>
+        <v>1116528.583506905</v>
       </c>
       <c r="G170">
-        <v>-55.10401438134299</v>
+        <v>4841160.38261151</v>
       </c>
       <c r="H170">
-        <v>330.8377856573478</v>
+        <v>3985427.959428465</v>
       </c>
       <c r="I170">
-        <v>-1332.488840993786</v>
+        <v>1115155.601855569</v>
       </c>
       <c r="J170">
-        <v>2004.262664153814</v>
+        <v>4842787.912006805</v>
       </c>
       <c r="K170">
-        <v>1860.981951898626</v>
+        <v>3986555.421850092</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6395,34 +6383,34 @@
         <v>8</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C171" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D171" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E171">
         <v>162.142</v>
       </c>
       <c r="F171">
-        <v>116.0352635669359</v>
+        <v>1116499.986149525</v>
       </c>
       <c r="G171">
-        <v>-41.51788613556617</v>
+        <v>4841176.895440251</v>
       </c>
       <c r="H171">
-        <v>367.9463486206553</v>
+        <v>3985546.645554614</v>
       </c>
       <c r="I171">
-        <v>-1291.749134796512</v>
+        <v>1115192.463780054</v>
       </c>
       <c r="J171">
-        <v>1941.8413511497</v>
+        <v>4842739.260393437</v>
       </c>
       <c r="K171">
-        <v>2003.358903540679</v>
+        <v>3986722.879739769</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6430,34 +6418,34 @@
         <v>8</v>
       </c>
       <c r="B172" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C172" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D172" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E172">
         <v>163.142</v>
       </c>
       <c r="F172">
-        <v>101.0897054897412</v>
+        <v>1116481.933399539</v>
       </c>
       <c r="G172">
-        <v>-27.93175788978933</v>
+        <v>4841193.40826899</v>
       </c>
       <c r="H172">
-        <v>394.4653304986422</v>
+        <v>3985631.462507284</v>
       </c>
       <c r="I172">
-        <v>-1250.006250813972</v>
+        <v>1115230.233395517</v>
       </c>
       <c r="J172">
-        <v>1879.420038145586</v>
+        <v>4842690.608780069</v>
       </c>
       <c r="K172">
-        <v>2132.856091024506</v>
+        <v>3986875.188982838</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6465,34 +6453,34 @@
         <v>8</v>
       </c>
       <c r="B173" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C173" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D173" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E173">
         <v>164.142</v>
       </c>
       <c r="F173">
-        <v>90.66673395428752</v>
+        <v>1116469.343484979</v>
       </c>
       <c r="G173">
-        <v>-14.34562964401249</v>
+        <v>4841209.921097729</v>
       </c>
       <c r="H173">
-        <v>415.1156474794757</v>
+        <v>3985697.509422887</v>
       </c>
       <c r="I173">
-        <v>-1207.235486716112</v>
+        <v>1115268.933053013</v>
       </c>
       <c r="J173">
-        <v>1816.998725141472</v>
+        <v>4842641.957166702</v>
       </c>
       <c r="K173">
-        <v>2249.473514350108</v>
+        <v>3987012.3495793</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6500,34 +6488,34 @@
         <v>8</v>
       </c>
       <c r="B174" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C174" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D174" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E174">
         <v>165.142</v>
       </c>
       <c r="F174">
-        <v>82.89088505645498</v>
+        <v>1116459.951031692</v>
       </c>
       <c r="G174">
-        <v>-0.7595013982356663</v>
+        <v>4841226.433926469</v>
       </c>
       <c r="H174">
-        <v>432.0298588713687</v>
+        <v>3985751.606969832</v>
       </c>
       <c r="I174">
-        <v>-1163.411531900723</v>
+        <v>1115308.585653972</v>
       </c>
       <c r="J174">
-        <v>1754.577412137358</v>
+        <v>4842593.305553334</v>
       </c>
       <c r="K174">
-        <v>2353.211173517484</v>
+        <v>3987134.361529155</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6535,34 +6523,34 @@
         <v>8</v>
       </c>
       <c r="B175" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C175" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D175" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E175">
         <v>166.142</v>
       </c>
       <c r="F175">
-        <v>76.81125708345607</v>
+        <v>1116452.607444839</v>
       </c>
       <c r="G175">
-        <v>12.82662684754117</v>
+        <v>4841242.946755208</v>
       </c>
       <c r="H175">
-        <v>446.3549612427124</v>
+        <v>3985797.423643166</v>
       </c>
       <c r="I175">
-        <v>-1118.508452515305</v>
+        <v>1115349.21466375</v>
       </c>
       <c r="J175">
-        <v>1692.156099133244</v>
+        <v>4842544.653939965</v>
       </c>
       <c r="K175">
-        <v>2444.069068526634</v>
+        <v>3987241.224832402</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6570,34 +6558,34 @@
         <v>8</v>
       </c>
       <c r="B176" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C176" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D176" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E176">
         <v>167.142</v>
       </c>
       <c r="F176">
-        <v>71.89239538107201</v>
+        <v>1116446.66594837</v>
       </c>
       <c r="G176">
-        <v>26.41275509331801</v>
+        <v>4841259.459583947</v>
       </c>
       <c r="H176">
-        <v>458.779378559895</v>
+        <v>3985837.161262822</v>
       </c>
       <c r="I176">
-        <v>-1072.499676110096</v>
+        <v>1115390.844125516</v>
       </c>
       <c r="J176">
-        <v>1629.73478612913</v>
+        <v>4842496.002326597</v>
       </c>
       <c r="K176">
-        <v>2522.047199377559</v>
+        <v>3987332.939489041</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6605,34 +6593,34 @@
         <v>8</v>
       </c>
       <c r="B177" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C177" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D177" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E177">
         <v>168.142</v>
       </c>
       <c r="F177">
-        <v>67.80798747948108</v>
+        <v>1116441.732389228</v>
       </c>
       <c r="G177">
-        <v>39.99888333909483</v>
+        <v>4841275.972412688</v>
       </c>
       <c r="H177">
-        <v>469.7489096089222</v>
+        <v>3985872.245648794</v>
       </c>
       <c r="I177">
-        <v>-1025.357975913207</v>
+        <v>1115433.49867448</v>
       </c>
       <c r="J177">
-        <v>1567.313473125016</v>
+        <v>4842447.350713231</v>
       </c>
       <c r="K177">
-        <v>2587.145566070258</v>
+        <v>3987409.505499073</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6640,34 +6628,34 @@
         <v>8</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C178" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D178" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E178">
         <v>169.142</v>
       </c>
       <c r="F178">
-        <v>64.34675909639346</v>
+        <v>1116437.551569059</v>
       </c>
       <c r="G178">
-        <v>53.58501158487168</v>
+        <v>4841292.485241426</v>
       </c>
       <c r="H178">
-        <v>479.5688472842352</v>
+        <v>3985903.653234231</v>
       </c>
       <c r="I178">
-        <v>-977.0554547185388</v>
+        <v>1115477.20355247</v>
       </c>
       <c r="J178">
-        <v>1504.892160120902</v>
+        <v>4842398.699099863</v>
       </c>
       <c r="K178">
-        <v>2639.364168604732</v>
+        <v>3987470.922862498</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6675,34 +6663,34 @@
         <v>8</v>
       </c>
       <c r="B179" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C179" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D179" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E179">
         <v>170.142</v>
       </c>
       <c r="F179">
-        <v>61.36524852307236</v>
+        <v>1116433.950200366</v>
       </c>
       <c r="G179">
-        <v>67.1711398306485</v>
+        <v>4841308.998070166</v>
       </c>
       <c r="H179">
-        <v>488.4574505076266</v>
+        <v>3985932.082087283</v>
       </c>
       <c r="I179">
-        <v>-927.5635283769561</v>
+        <v>1115521.984622873</v>
       </c>
       <c r="J179">
-        <v>1442.470847116788</v>
+        <v>4842350.047486494</v>
       </c>
       <c r="K179">
-        <v>2678.70300698098</v>
+        <v>3987517.191579315</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6710,34 +6698,34 @@
         <v>8</v>
       </c>
       <c r="B180" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C180" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D180" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E180">
         <v>171.142</v>
       </c>
       <c r="F180">
-        <v>58.76223573274061</v>
+        <v>1116430.806019408</v>
       </c>
       <c r="G180">
-        <v>80.75726807642533</v>
+        <v>4841325.510898906</v>
       </c>
       <c r="H180">
-        <v>496.5761746323761</v>
+        <v>3985958.048598479</v>
       </c>
       <c r="I180">
-        <v>-876.8529088809497</v>
+        <v>1115567.868385937</v>
       </c>
       <c r="J180">
-        <v>1380.049534112674</v>
+        <v>4842301.395873127</v>
       </c>
       <c r="K180">
-        <v>2705.162081199002</v>
+        <v>3987548.311649525</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6745,34 +6733,34 @@
         <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C181" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D181" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E181">
         <v>172.142</v>
       </c>
       <c r="F181">
-        <v>56.46402146161256</v>
+        <v>1116428.030004793</v>
       </c>
       <c r="G181">
-        <v>94.34339632220218</v>
+        <v>4841342.023727644</v>
       </c>
       <c r="H181">
-        <v>504.0478189009772</v>
+        <v>3985981.945522622</v>
       </c>
       <c r="I181">
-        <v>-824.8935870327683</v>
+        <v>1115614.881994453</v>
       </c>
       <c r="J181">
-        <v>1317.62822110856</v>
+        <v>4842252.744259759</v>
       </c>
       <c r="K181">
-        <v>2718.741391258799</v>
+        <v>3987564.283073127</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6780,34 +6768,34 @@
         <v>8</v>
       </c>
       <c r="B182" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C182" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D182" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E182">
         <v>173.142</v>
       </c>
       <c r="F182">
-        <v>54.41551524100046</v>
+        <v>1116425.555612705</v>
       </c>
       <c r="G182">
-        <v>107.929524567979</v>
+        <v>4841358.536556385</v>
       </c>
       <c r="H182">
-        <v>510.9679597660921</v>
+        <v>3986004.078546542</v>
       </c>
       <c r="I182">
-        <v>-771.6548146857749</v>
+        <v>1115663.053269828</v>
       </c>
       <c r="J182">
-        <v>1255.206908104446</v>
+        <v>4842204.092646392</v>
       </c>
       <c r="K182">
-        <v>2719.44093716037</v>
+        <v>3987565.105850122</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6815,34 +6803,34 @@
         <v>8</v>
       </c>
       <c r="B183" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C183" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D183" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E183">
         <v>174.142</v>
       </c>
       <c r="F183">
-        <v>52.57460888324297</v>
+        <v>1116423.331980637</v>
       </c>
       <c r="G183">
-        <v>121.5156528137558</v>
+        <v>4841375.049385124</v>
       </c>
       <c r="H183">
-        <v>517.4124466683701</v>
+        <v>3986024.690263202</v>
       </c>
       <c r="I183">
-        <v>-717.1050865485096</v>
+        <v>1115712.410718543</v>
       </c>
       <c r="J183">
-        <v>1192.785595100332</v>
+        <v>4842155.441033023</v>
       </c>
       <c r="K183">
-        <v>2707.260718903716</v>
+        <v>3987550.779980509</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6850,34 +6838,34 @@
         <v>8</v>
       </c>
       <c r="B184" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C184" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D184" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E184">
         <v>175.142</v>
       </c>
       <c r="F184">
-        <v>50.90849578347214</v>
+        <v>1116421.319481466</v>
       </c>
       <c r="G184">
-        <v>135.1017810595327</v>
+        <v>4841391.562213863</v>
       </c>
       <c r="H184">
-        <v>523.4424831991165</v>
+        <v>3986043.976423032</v>
       </c>
       <c r="I184">
-        <v>-661.2121215406933</v>
+        <v>1115762.983549024</v>
       </c>
       <c r="J184">
-        <v>1130.364282096218</v>
+        <v>4842106.789419656</v>
       </c>
       <c r="K184">
-        <v>2682.200736488836</v>
+        <v>3987521.305464289</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6885,34 +6873,34 @@
         <v>8</v>
       </c>
       <c r="B185" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C185" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D185" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E185">
         <v>176.142</v>
       </c>
       <c r="F185">
-        <v>49.39118870700624</v>
+        <v>1116419.486725194</v>
       </c>
       <c r="G185">
-        <v>148.6879093053095</v>
+        <v>4841408.075042603</v>
       </c>
       <c r="H185">
-        <v>529.108170801909</v>
+        <v>3986062.097267922</v>
       </c>
       <c r="I185">
-        <v>-603.9428436901446</v>
+        <v>1115814.801688929</v>
       </c>
       <c r="J185">
-        <v>1067.942969092104</v>
+        <v>4842058.137806288</v>
       </c>
       <c r="K185">
-        <v>2644.26098991573</v>
+        <v>3987476.682301462</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6920,34 +6908,34 @@
         <v>8</v>
       </c>
       <c r="B186" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C186" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D186" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E186">
         <v>177.142</v>
       </c>
       <c r="F186">
-        <v>48.00180109585462</v>
+        <v>1116417.808482933</v>
       </c>
       <c r="G186">
-        <v>162.2740375510863</v>
+        <v>4841424.587871342</v>
       </c>
       <c r="H186">
-        <v>534.4510415463408</v>
+        <v>3986079.185631915</v>
       </c>
       <c r="I186">
-        <v>-545.2633625592958</v>
+        <v>1115867.895802857</v>
       </c>
       <c r="J186">
-        <v>1005.52165608799</v>
+        <v>4842009.486192919</v>
       </c>
       <c r="K186">
-        <v>2593.441479184399</v>
+        <v>3987416.910492027</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6955,34 +6943,34 @@
         <v>8</v>
       </c>
       <c r="B187" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C187" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D187" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E187">
         <v>178.142</v>
       </c>
       <c r="F187">
-        <v>46.72332927856769</v>
+        <v>1116416.264215936</v>
       </c>
       <c r="G187">
-        <v>175.8601657968632</v>
+        <v>4841441.100700081</v>
       </c>
       <c r="H187">
-        <v>539.5059074437844</v>
+        <v>3986095.352855964</v>
       </c>
       <c r="I187">
-        <v>-485.138953189733</v>
+        <v>1115922.297310496</v>
       </c>
       <c r="J187">
-        <v>943.1003430838762</v>
+        <v>4841960.834579553</v>
       </c>
       <c r="K187">
-        <v>2529.742204294842</v>
+        <v>3987341.990035984</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6990,34 +6978,34 @@
         <v>8</v>
       </c>
       <c r="B188" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C188" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D188" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E188">
         <v>179.142</v>
       </c>
       <c r="F188">
-        <v>45.54177187032403</v>
+        <v>1116414.837011922</v>
       </c>
       <c r="G188">
-        <v>189.44629404264</v>
+        <v>4841457.613528822</v>
       </c>
       <c r="H188">
-        <v>544.3022363319853</v>
+        <v>3986110.693188492</v>
       </c>
       <c r="I188">
-        <v>-423.5340355528863</v>
+        <v>1115978.038405211</v>
       </c>
       <c r="J188">
-        <v>880.6790300797621</v>
+        <v>4841912.182966185</v>
       </c>
       <c r="K188">
-        <v>2453.16316524706</v>
+        <v>3987251.920933335</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -7025,34 +7013,34 @@
         <v>8</v>
       </c>
       <c r="B189" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C189" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D189" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E189">
         <v>180.142</v>
       </c>
       <c r="F189">
-        <v>44.44548138927434</v>
+        <v>1116413.512801888</v>
       </c>
       <c r="G189">
-        <v>203.0324222884168</v>
+        <v>4841474.12635756</v>
       </c>
       <c r="H189">
-        <v>548.8651927117246</v>
+        <v>3986125.287114347</v>
       </c>
       <c r="I189">
-        <v>-360.4121534947175</v>
+        <v>1116035.152073103</v>
       </c>
       <c r="J189">
-        <v>818.2577170756481</v>
+        <v>4841863.531352817</v>
       </c>
       <c r="K189">
-        <v>2363.704362041051</v>
+        <v>3987146.703184078</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -7060,34 +7048,34 @@
         <v>8</v>
       </c>
       <c r="B190" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C190" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D190" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E190">
         <v>181.142</v>
       </c>
       <c r="F190">
-        <v>43.42467907559413</v>
+        <v>1116412.279774064</v>
       </c>
       <c r="G190">
-        <v>216.6185505341937</v>
+        <v>4841490.6391863</v>
       </c>
       <c r="H190">
-        <v>553.216436912182</v>
+        <v>3986139.203910818</v>
       </c>
       <c r="I190">
-        <v>-295.7359531619331</v>
+        <v>1116093.672112524</v>
       </c>
       <c r="J190">
-        <v>755.8364040715343</v>
+        <v>4841814.879739448</v>
       </c>
       <c r="K190">
-        <v>2261.365794676818</v>
+        <v>3987026.336788213</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -7095,34 +7083,34 @@
         <v>8</v>
       </c>
       <c r="B191" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C191" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D191" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E191">
         <v>182.142</v>
       </c>
       <c r="F191">
-        <v>42.47108651709959</v>
+        <v>1116411.12792895</v>
       </c>
       <c r="G191">
-        <v>230.2046787799705</v>
+        <v>4841507.15201504</v>
       </c>
       <c r="H191">
-        <v>557.3747469435486</v>
+        <v>3986152.503636529</v>
       </c>
       <c r="I191">
-        <v>-229.4671608969672</v>
+        <v>1116153.633154077</v>
       </c>
       <c r="J191">
-        <v>693.4150910674201</v>
+        <v>4841766.228126081</v>
       </c>
       <c r="K191">
-        <v>2146.147463154359</v>
+        <v>3986890.82174574</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -7130,34 +7118,34 @@
         <v>8</v>
       </c>
       <c r="B192" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C192" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D192" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E192">
         <v>183.142</v>
       </c>
       <c r="F192">
-        <v>41.57764225842278</v>
+        <v>1116410.048737009</v>
       </c>
       <c r="G192">
-        <v>243.7908070257473</v>
+        <v>4841523.664843779</v>
       </c>
       <c r="H192">
-        <v>561.35650824676</v>
+        <v>3986165.238697836</v>
       </c>
       <c r="I192">
-        <v>-161.5665605886471</v>
+        <v>1116215.070681116</v>
       </c>
       <c r="J192">
-        <v>630.9937780633064</v>
+        <v>4841717.576512714</v>
       </c>
       <c r="K192">
-        <v>2018.049367473675</v>
+        <v>3986740.158056661</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -7165,34 +7153,34 @@
         <v>8</v>
       </c>
       <c r="B193" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C193" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D193" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E193">
         <v>184.142</v>
       </c>
       <c r="F193">
-        <v>40.73828116721062</v>
+        <v>1116409.034872164</v>
       </c>
       <c r="G193">
-        <v>257.3769352715242</v>
+        <v>4841540.177672518</v>
       </c>
       <c r="H193">
-        <v>565.1761036481646</v>
+        <v>3986177.455096032</v>
       </c>
       <c r="I193">
-        <v>-91.99397046514143</v>
+        <v>1116278.021050737</v>
       </c>
       <c r="J193">
-        <v>568.5724650591923</v>
+        <v>4841668.924899346</v>
       </c>
       <c r="K193">
-        <v>1877.071507634764</v>
+        <v>3986574.345720973</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -7200,34 +7188,34 @@
         <v>8</v>
       </c>
       <c r="B194" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C194" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D194" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E194">
         <v>185.142</v>
       </c>
       <c r="F194">
-        <v>39.94776077582262</v>
+        <v>1116408.080002034</v>
       </c>
       <c r="G194">
-        <v>270.963063517301</v>
+        <v>4841556.690501258</v>
       </c>
       <c r="H194">
-        <v>568.8462269685737</v>
+        <v>3986189.193430384</v>
       </c>
       <c r="I194">
-        <v>-20.70821931545398</v>
+        <v>1116342.521515296</v>
       </c>
       <c r="J194">
-        <v>506.1511520550782</v>
+        <v>4841620.273285978</v>
       </c>
       <c r="K194">
-        <v>1723.213883637628</v>
+        <v>3986393.384738679</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -7235,34 +7223,34 @@
         <v>8</v>
       </c>
       <c r="B195" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C195" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D195" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E195">
         <v>186.142</v>
       </c>
       <c r="F195">
-        <v>39.20152322369425</v>
+        <v>1116407.178621176</v>
       </c>
       <c r="G195">
-        <v>284.5491917630779</v>
+        <v>4841573.203329997</v>
       </c>
       <c r="H195">
-        <v>572.3781375492698</v>
+        <v>3986200.489712192</v>
       </c>
       <c r="I195">
-        <v>52.3328778746062</v>
+        <v>1116408.610244455</v>
       </c>
       <c r="J195">
-        <v>443.7298390509644</v>
+        <v>4841571.62167261</v>
       </c>
       <c r="K195">
-        <v>1556.476495482267</v>
+        <v>3986197.275109777</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7270,34 +7258,34 @@
         <v>8</v>
       </c>
       <c r="B196" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C196" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D196" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E196">
         <v>187.142</v>
       </c>
       <c r="F196">
-        <v>38.49558448828424</v>
+        <v>1116406.325917287</v>
       </c>
       <c r="G196">
-        <v>298.1353200088546</v>
+        <v>4841589.716158737</v>
       </c>
       <c r="H196">
-        <v>575.781868568657</v>
+        <v>3986211.37603106</v>
       </c>
       <c r="I196">
-        <v>127.1725448863942</v>
+        <v>1116476.32634777</v>
       </c>
       <c r="J196">
-        <v>381.3085260468503</v>
+        <v>4841522.970059242</v>
       </c>
       <c r="K196">
-        <v>1376.85934316868</v>
+        <v>3985986.016834267</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7305,34 +7293,34 @@
         <v>8</v>
       </c>
       <c r="B197" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C197" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D197" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E197">
         <v>188.142</v>
       </c>
       <c r="F197">
-        <v>37.82644475336946</v>
+        <v>1116405.517662936</v>
       </c>
       <c r="G197">
-        <v>311.7214482546315</v>
+        <v>4841606.228987476</v>
       </c>
       <c r="H197">
-        <v>579.0663988650149</v>
+        <v>3986221.881104444</v>
       </c>
       <c r="I197">
-        <v>203.8550698471171</v>
+        <v>1116545.709897831</v>
       </c>
       <c r="J197">
-        <v>318.8872130427366</v>
+        <v>4841474.318445875</v>
       </c>
       <c r="K197">
-        <v>1184.362426696867</v>
+        <v>3985759.609912151</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7340,34 +7328,34 @@
         <v>8</v>
       </c>
       <c r="B198" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C198" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D198" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E198">
         <v>189.142</v>
       </c>
       <c r="F198">
-        <v>37.19101530920179</v>
+        <v>1116404.750127269</v>
       </c>
       <c r="G198">
-        <v>325.3075765004083</v>
+        <v>4841622.741816216</v>
       </c>
       <c r="H198">
-        <v>582.2397956781695</v>
+        <v>3986232.03073419</v>
       </c>
       <c r="I198">
-        <v>282.4258314383675</v>
+        <v>1116616.801953981</v>
       </c>
       <c r="J198">
-        <v>256.4659000386225</v>
+        <v>4841425.666832507</v>
       </c>
       <c r="K198">
-        <v>978.9857460668286</v>
+        <v>3985518.054343426</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7375,34 +7363,34 @@
         <v>8</v>
       </c>
       <c r="B199" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C199" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D199" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E199">
         <v>190.142</v>
       </c>
       <c r="F199">
-        <v>36.58655849897328</v>
+        <v>1116404.020003468</v>
       </c>
       <c r="G199">
-        <v>338.8937047461852</v>
+        <v>4841639.254644956</v>
       </c>
       <c r="H199">
-        <v>585.3093340235937</v>
+        <v>3986241.848188335</v>
       </c>
       <c r="I199">
-        <v>362.931325750028</v>
+        <v>1116689.644586609</v>
       </c>
       <c r="J199">
-        <v>194.0445870345084</v>
+        <v>4841377.015219139</v>
       </c>
       <c r="K199">
-        <v>760.7293012785647</v>
+        <v>3985261.350128094</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7410,34 +7398,34 @@
         <v>8</v>
       </c>
       <c r="B200" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C200" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D200" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E200">
         <v>191.142</v>
       </c>
       <c r="F200">
-        <v>36.01063804709983</v>
+        <v>1116403.324348754</v>
       </c>
       <c r="G200">
-        <v>352.479832991962</v>
+        <v>4841655.767473695</v>
       </c>
       <c r="H200">
-        <v>588.2815971442478</v>
+        <v>3986251.354522386</v>
       </c>
       <c r="I200">
-        <v>445.4191937954151</v>
+        <v>1116764.280902053</v>
       </c>
       <c r="J200">
-        <v>131.6232740303946</v>
+        <v>4841328.363605771</v>
       </c>
       <c r="K200">
-        <v>529.5930923320756</v>
+        <v>3984989.497266155</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7445,34 +7433,34 @@
         <v>8</v>
       </c>
       <c r="B201" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C201" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D201" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E201">
         <v>192.142</v>
       </c>
       <c r="F201">
-        <v>35.46107771343729</v>
+        <v>1116402.660534445</v>
       </c>
       <c r="G201">
-        <v>366.0659612377388</v>
+        <v>4841672.280302434</v>
       </c>
       <c r="H201">
-        <v>591.1625615291268</v>
+        <v>3986260.56885124</v>
       </c>
       <c r="I201">
-        <v>529.9382497039746</v>
+        <v>1116840.7550681</v>
       </c>
       <c r="J201">
-        <v>69.2019610262805</v>
+        <v>4841279.711992403</v>
       </c>
       <c r="K201">
-        <v>285.5771192273602</v>
+        <v>3984702.495757608</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -7480,34 +7468,34 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C202" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D202" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E202">
         <v>193.142</v>
       </c>
       <c r="F202">
-        <v>34.93592667329004</v>
+        <v>1116402.026204139</v>
       </c>
       <c r="G202">
-        <v>379.6520894835157</v>
+        <v>4841688.793131175</v>
       </c>
       <c r="H202">
-        <v>593.9576692592765</v>
+        <v>3986269.508580568</v>
       </c>
       <c r="I202">
-        <v>616.538509608176</v>
+        <v>1116919.112340131</v>
       </c>
       <c r="J202">
-        <v>6.78064802216641</v>
+        <v>4841231.060379036</v>
       </c>
       <c r="K202">
-        <v>28.68138196441935</v>
+        <v>3984400.345602454</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -7515,34 +7503,34 @@
         <v>8</v>
       </c>
       <c r="B203" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C203" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D203" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E203">
         <v>194.142</v>
       </c>
       <c r="F203">
-        <v>34.43343036763819</v>
+        <v>1116401.419238502</v>
       </c>
       <c r="G203">
-        <v>393.2382177292925</v>
+        <v>4841705.305959913</v>
       </c>
       <c r="H203">
-        <v>596.6718898825134</v>
+        <v>3986278.189604718</v>
       </c>
       <c r="I203">
-        <v>705.2712212417393</v>
+        <v>1116999.399087898</v>
       </c>
       <c r="J203">
-        <v>-55.64066498194738</v>
+        <v>4841182.408765668</v>
       </c>
       <c r="K203">
-        <v>-241.0941194567463</v>
+        <v>3984083.046800692</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -7550,34 +7538,34 @@
         <v>8</v>
       </c>
       <c r="B204" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C204" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D204" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E204">
         <v>195.142</v>
       </c>
       <c r="F204">
-        <v>33.9520058308498</v>
+        <v>1116400.83772547</v>
       </c>
       <c r="G204">
-        <v>406.8243459750693</v>
+        <v>4841721.818788653</v>
       </c>
       <c r="H204">
-        <v>599.3097735845269</v>
+        <v>3986286.626476772</v>
       </c>
       <c r="I204">
-        <v>796.1888942666818</v>
+        <v>1117081.662822967</v>
       </c>
       <c r="J204">
-        <v>-118.0619779860615</v>
+        <v>4841133.7571523</v>
       </c>
       <c r="K204">
-        <v>-523.7493850361383</v>
+        <v>3983750.599352323</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -7585,34 +7573,34 @@
         <v>8</v>
       </c>
       <c r="B205" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C205" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D205" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E205">
         <v>196.142</v>
       </c>
       <c r="F205">
-        <v>33.49022070533005</v>
+        <v>1116400.279934895</v>
       </c>
       <c r="G205">
-        <v>420.4104742208462</v>
+        <v>4841738.331617392</v>
       </c>
       <c r="H205">
-        <v>601.8754970854067</v>
+        <v>3986294.832555337</v>
       </c>
       <c r="I205">
-        <v>889.3453313471387</v>
+        <v>1117165.95222683</v>
       </c>
       <c r="J205">
-        <v>-180.4832909901756</v>
+        <v>4841085.105538932</v>
       </c>
       <c r="K205">
-        <v>-819.2844147737567</v>
+        <v>3983403.003257346</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -7620,34 +7608,34 @@
         <v>8</v>
       </c>
       <c r="B206" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C206" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D206" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E206">
         <v>197.142</v>
       </c>
       <c r="F206">
-        <v>33.04677530932453</v>
+        <v>1116399.744296894</v>
       </c>
       <c r="G206">
-        <v>433.996602466623</v>
+        <v>4841754.844446132</v>
       </c>
       <c r="H206">
-        <v>604.3729034241732</v>
+        <v>3986302.820131791</v>
       </c>
       <c r="I206">
-        <v>984.795659988351</v>
+        <v>1117252.317179719</v>
       </c>
       <c r="J206">
-        <v>-242.9046039942896</v>
+        <v>4841036.453925564</v>
       </c>
       <c r="K206">
-        <v>-1127.6992086696</v>
+        <v>3983040.258515763</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -7655,34 +7643,34 @@
         <v>8</v>
       </c>
       <c r="B207" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C207" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D207" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E207">
         <v>198.142</v>
       </c>
       <c r="F207">
-        <v>32.6204872465367</v>
+        <v>1116399.229383247</v>
       </c>
       <c r="G207">
-        <v>447.5827307123998</v>
+        <v>4841771.357274871</v>
       </c>
       <c r="H207">
-        <v>606.8055365827416</v>
+        <v>3986310.600541024</v>
       </c>
       <c r="I207">
-        <v>1082.59636515966</v>
+        <v>1117340.808790118</v>
       </c>
       <c r="J207">
-        <v>-305.3259169984032</v>
+        <v>4840987.802312196</v>
       </c>
       <c r="K207">
-        <v>-1448.993766723667</v>
+        <v>3982662.365127571</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -7690,34 +7678,34 @@
         <v>8</v>
       </c>
       <c r="B208" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C208" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D208" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E208">
         <v>199.142</v>
       </c>
       <c r="F208">
-        <v>32.21027814253524</v>
+        <v>1116398.733891385</v>
       </c>
       <c r="G208">
-        <v>461.1688589581767</v>
+        <v>4841787.870103611</v>
       </c>
       <c r="H208">
-        <v>609.1766717323195</v>
+        <v>3986318.184258178</v>
       </c>
       <c r="I208">
-        <v>1182.805322720816</v>
+        <v>1117431.479425013</v>
       </c>
       <c r="J208">
-        <v>-367.7472300025172</v>
+        <v>4840939.150698829</v>
       </c>
       <c r="K208">
-        <v>-1783.168088935961</v>
+        <v>3982269.323092772</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -7725,34 +7713,34 @@
         <v>8</v>
       </c>
       <c r="B209" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C209" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D209" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E209">
         <v>200.142</v>
       </c>
       <c r="F209">
-        <v>31.81516216918683</v>
+        <v>1116398.256630526</v>
       </c>
       <c r="G209">
-        <v>474.7549872039535</v>
+        <v>4841804.38293235</v>
       </c>
       <c r="H209">
-        <v>611.489341750045</v>
+        <v>3986325.58098345</v>
       </c>
       <c r="I209">
-        <v>1285.481833671363</v>
+        <v>1117524.382740876</v>
       </c>
       <c r="J209">
-        <v>-430.1685430066313</v>
+        <v>4840890.499085461</v>
       </c>
       <c r="K209">
-        <v>-2130.222175306481</v>
+        <v>3981861.132411366</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -7760,34 +7748,34 @@
         <v>8</v>
       </c>
       <c r="B210" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C210" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D210" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E210">
         <v>201.142</v>
       </c>
       <c r="F210">
-        <v>31.43423607911157</v>
+        <v>1116397.796509637</v>
       </c>
       <c r="G210">
-        <v>488.3411154497303</v>
+        <v>4841820.89576109</v>
       </c>
       <c r="H210">
-        <v>613.7463605445216</v>
+        <v>3986332.799716701</v>
       </c>
       <c r="I210">
-        <v>1390.686659243409</v>
+        <v>1117619.573715423</v>
       </c>
       <c r="J210">
-        <v>-492.5898560107454</v>
+        <v>4840841.847472093</v>
       </c>
       <c r="K210">
-        <v>-2490.156025835227</v>
+        <v>3981437.793083352</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -7795,34 +7783,34 @@
         <v>8</v>
       </c>
       <c r="B211" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C211" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D211" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E211">
         <v>202.142</v>
       </c>
       <c r="F211">
-        <v>31.06667052086097</v>
+        <v>1116397.352526944</v>
       </c>
       <c r="G211">
-        <v>501.9272436955072</v>
+        <v>4841837.408589829</v>
       </c>
       <c r="H211">
-        <v>615.9503436402709</v>
+        <v>3986339.848823291</v>
       </c>
       <c r="I211">
-        <v>1498.482056858504</v>
+        <v>1117717.108680145</v>
       </c>
       <c r="J211">
-        <v>-555.0111690148594</v>
+        <v>4840793.195858725</v>
       </c>
       <c r="K211">
-        <v>-2862.969640522198</v>
+        <v>3980999.305108731</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -7830,34 +7818,34 @@
         <v>8</v>
       </c>
       <c r="B212" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C212" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D212" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E212">
         <v>203.142</v>
       </c>
       <c r="F212">
-        <v>30.71170244476932</v>
+        <v>1116396.923760758</v>
       </c>
       <c r="G212">
-        <v>515.513371941284</v>
+        <v>4841853.921418569</v>
       </c>
       <c r="H212">
-        <v>618.1037263987843</v>
+        <v>3986346.736092355</v>
       </c>
       <c r="I212">
-        <v>1608.93181696992</v>
+        <v>1117817.045353642</v>
       </c>
       <c r="J212">
-        <v>-617.432482018973</v>
+        <v>4840744.544245358</v>
       </c>
       <c r="K212">
-        <v>-3248.663019367393</v>
+        <v>3980545.668487502</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -7865,34 +7853,34 @@
         <v>8</v>
       </c>
       <c r="B213" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C213" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D213" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E213">
         <v>204.142</v>
       </c>
       <c r="F213">
-        <v>30.36862844124075</v>
+        <v>1116396.509361431</v>
       </c>
       <c r="G213">
-        <v>529.0995001870608</v>
+        <v>4841870.434247308</v>
       </c>
       <c r="H213">
-        <v>620.2087801945012</v>
+        <v>3986353.468788542</v>
       </c>
       <c r="I213">
-        <v>1722.101300812166</v>
+        <v>1117919.442875783</v>
       </c>
       <c r="J213">
-        <v>-679.8537950230871</v>
+        <v>4840695.89263199</v>
       </c>
       <c r="K213">
-        <v>-3647.236162370816</v>
+        <v>3980076.883219666</v>
       </c>
     </row>
   </sheetData>
